--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>544786.5127970234</v>
+        <v>543122.2344943983</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7319166.072938237</v>
+        <v>7319166.07293824</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>119.1599358961337</v>
       </c>
       <c r="C11" t="n">
-        <v>227.8858775549405</v>
+        <v>233.3938661754882</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>250.0513444767424</v>
       </c>
       <c r="F11" t="n">
-        <v>274.997020146192</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>280.6179422616526</v>
       </c>
       <c r="H11" t="n">
-        <v>178.8611880106329</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>13.20456790989125</v>
       </c>
       <c r="T11" t="n">
-        <v>78.93456729087836</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>119.24216573968</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>195.8732328746155</v>
+        <v>195.8732328746156</v>
       </c>
       <c r="W11" t="n">
-        <v>217.3619431218936</v>
+        <v>217.3619431218937</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>237.8520750829497</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.3589130605342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,16 +1446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.65415805434793</v>
+        <v>34.65415805434799</v>
       </c>
       <c r="C12" t="n">
-        <v>153.7395400364189</v>
+        <v>40.82947339279639</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>15.5660399691194</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>25.76605485988159</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1497,10 +1497,10 @@
         <v>6.950563157984178</v>
       </c>
       <c r="S12" t="n">
-        <v>11.91965888339751</v>
+        <v>143.7986844789169</v>
       </c>
       <c r="T12" t="n">
-        <v>62.23473658022255</v>
+        <v>194.113762175742</v>
       </c>
       <c r="U12" t="n">
         <v>225.8426176655383</v>
@@ -1509,13 +1509,13 @@
         <v>100.9215615539059</v>
       </c>
       <c r="W12" t="n">
-        <v>119.8159575654002</v>
+        <v>119.8159575654003</v>
       </c>
       <c r="X12" t="n">
-        <v>73.89395960795807</v>
+        <v>73.89395960795812</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.80367018178495</v>
+        <v>186.7137368254065</v>
       </c>
     </row>
     <row r="13">
@@ -1525,31 +1525,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.95295458641789</v>
+        <v>47.95295458641795</v>
       </c>
       <c r="C13" t="n">
-        <v>35.36779550310843</v>
+        <v>35.36779550310848</v>
       </c>
       <c r="D13" t="n">
-        <v>16.73644742269295</v>
+        <v>16.736447422693</v>
       </c>
       <c r="E13" t="n">
-        <v>14.55493705104976</v>
+        <v>14.55493705104982</v>
       </c>
       <c r="F13" t="n">
-        <v>13.54202242741184</v>
+        <v>13.54202242741189</v>
       </c>
       <c r="G13" t="n">
-        <v>166.7324076819667</v>
+        <v>34.85338208644734</v>
       </c>
       <c r="H13" t="n">
-        <v>19.15830055183616</v>
+        <v>19.15830055183621</v>
       </c>
       <c r="I13" t="n">
-        <v>75.16036235128794</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4.378162588683722</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>70.20410058840476</v>
+        <v>70.20410058840481</v>
       </c>
       <c r="T13" t="n">
-        <v>90.68903030593235</v>
+        <v>222.5680559014518</v>
       </c>
       <c r="U13" t="n">
-        <v>154.3713543967992</v>
+        <v>225.1535541594027</v>
       </c>
       <c r="V13" t="n">
         <v>120.2586177283086</v>
       </c>
       <c r="W13" t="n">
-        <v>154.6439727410716</v>
+        <v>154.6439727410717</v>
       </c>
       <c r="X13" t="n">
-        <v>93.83062979351774</v>
+        <v>93.8306297935178</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.70562775657538</v>
+        <v>86.70562775657544</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>250.8548160679612</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.0513444767424</v>
       </c>
       <c r="F14" t="n">
         <v>274.997020146192</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>280.6179422616525</v>
       </c>
       <c r="H14" t="n">
-        <v>178.8611880106329</v>
+        <v>58.74644379190228</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>13.20456790989119</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>78.93456729087836</v>
       </c>
       <c r="U14" t="n">
         <v>119.24216573968</v>
       </c>
       <c r="V14" t="n">
-        <v>195.8732328746155</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>217.3619431218936</v>
       </c>
       <c r="X14" t="n">
-        <v>237.8520750829496</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>59.26789884554978</v>
+        <v>254.3589130605342</v>
       </c>
     </row>
     <row r="15">
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.65415805434793</v>
+        <v>113.4220271528605</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>40.82947339279633</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>15.56603996911934</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>25.76605485988154</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>13.19018679786447</v>
       </c>
       <c r="G15" t="n">
         <v>3.963272453055578</v>
@@ -1737,19 +1737,19 @@
         <v>11.91965888339751</v>
       </c>
       <c r="T15" t="n">
-        <v>141.0026056787356</v>
+        <v>194.113762175742</v>
       </c>
       <c r="U15" t="n">
-        <v>93.96359207001885</v>
+        <v>225.8426176655383</v>
       </c>
       <c r="V15" t="n">
-        <v>100.9215615539059</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>73.89395960795807</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1780,7 +1780,7 @@
         <v>34.85338208644728</v>
       </c>
       <c r="H16" t="n">
-        <v>19.15830055183616</v>
+        <v>151.0373261473556</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>75.16036235128807</v>
       </c>
       <c r="S16" t="n">
-        <v>202.0831261839242</v>
+        <v>70.20410058840476</v>
       </c>
       <c r="T16" t="n">
         <v>90.68903030593235</v>
@@ -1850,16 +1850,16 @@
         <v>143.8694487342852</v>
       </c>
       <c r="E17" t="n">
-        <v>145.6404222875795</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>196.0624528553136</v>
       </c>
       <c r="G17" t="n">
         <v>201.6833749707741</v>
       </c>
       <c r="H17" t="n">
-        <v>99.92662071975452</v>
+        <v>99.9266207197545</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>40.30759844880168</v>
+        <v>40.30759844880165</v>
       </c>
       <c r="V17" t="n">
         <v>116.9386655837371</v>
@@ -1907,10 +1907,10 @@
         <v>138.4273758310152</v>
       </c>
       <c r="X17" t="n">
-        <v>158.9175077920713</v>
+        <v>158.9175077920712</v>
       </c>
       <c r="Y17" t="n">
-        <v>175.4243457696558</v>
+        <v>125.0023152019208</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>93.65198750064137</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.73682805041007</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>37.70992210628421</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.113762175742</v>
       </c>
       <c r="U18" t="n">
-        <v>60.89474807595387</v>
+        <v>15.02902477914046</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>40.88139027452181</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>98.49282706632926</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.378162588683722</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>222.5680559014518</v>
       </c>
       <c r="U19" t="n">
-        <v>169.5514515835663</v>
+        <v>286.2503799923186</v>
       </c>
       <c r="V19" t="n">
-        <v>41.32405043743023</v>
+        <v>41.3240504374302</v>
       </c>
       <c r="W19" t="n">
-        <v>75.70940545019323</v>
+        <v>75.7094054501932</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>14.89606250263935</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,16 +2087,16 @@
         <v>143.8694487342852</v>
       </c>
       <c r="E20" t="n">
-        <v>171.116777185864</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>196.0624528553137</v>
+        <v>196.0624528553136</v>
       </c>
       <c r="G20" t="n">
-        <v>201.6833749707742</v>
+        <v>201.6833749707741</v>
       </c>
       <c r="H20" t="n">
-        <v>99.92662071975451</v>
+        <v>99.9266207197545</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>40.30759844880165</v>
       </c>
       <c r="V20" t="n">
         <v>116.9386655837371</v>
@@ -2144,10 +2144,10 @@
         <v>138.4273758310152</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>158.9175077920712</v>
       </c>
       <c r="Y20" t="n">
-        <v>153.1106442569309</v>
+        <v>125.0023152019213</v>
       </c>
     </row>
     <row r="21">
@@ -2166,13 +2166,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.842298048575</v>
+        <v>57.94718356389047</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>8.874688368609588</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8426176655383</v>
+        <v>15.02902477914046</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>21.98699426302747</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>97.52251256471511</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>4.378162588683722</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>120.7034321778081</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>222.5680559014518</v>
+        <v>187.2488214988156</v>
       </c>
       <c r="U22" t="n">
-        <v>75.43678710592083</v>
+        <v>286.2503799923186</v>
       </c>
       <c r="V22" t="n">
-        <v>41.32405043743023</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>75.70940545019323</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>14.89606250263938</v>
+        <v>14.89606250263935</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.771060465697019</v>
+        <v>7.771060465696991</v>
       </c>
     </row>
     <row r="23">
@@ -2327,13 +2327,13 @@
         <v>171.116777185864</v>
       </c>
       <c r="F23" t="n">
-        <v>196.0624528553137</v>
+        <v>196.0624528553136</v>
       </c>
       <c r="G23" t="n">
-        <v>201.6833749707742</v>
+        <v>201.6833749707741</v>
       </c>
       <c r="H23" t="n">
-        <v>99.92662071975451</v>
+        <v>99.92662071975448</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>40.30759844880168</v>
+        <v>40.30759844880165</v>
       </c>
       <c r="V23" t="n">
         <v>116.9386655837371</v>
@@ -2381,7 +2381,7 @@
         <v>138.4273758310152</v>
       </c>
       <c r="X23" t="n">
-        <v>158.9175077920713</v>
+        <v>158.9175077920712</v>
       </c>
       <c r="Y23" t="n">
         <v>175.4243457696558</v>
@@ -2406,7 +2406,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>6.950563157984178</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>39.04093794596418</v>
+        <v>191.0607134973313</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2482,22 +2482,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0613141730496</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.0373261473556</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>117.6017921469332</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>4.378162588683722</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.49282706632923</v>
       </c>
       <c r="S25" t="n">
         <v>202.0831261839242</v>
       </c>
       <c r="T25" t="n">
-        <v>11.75446301505399</v>
+        <v>222.5680559014518</v>
       </c>
       <c r="U25" t="n">
-        <v>75.43678710592083</v>
+        <v>286.2503799923186</v>
       </c>
       <c r="V25" t="n">
-        <v>41.32405043743023</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>75.70940545019323</v>
+        <v>75.7094054501932</v>
       </c>
       <c r="X25" t="n">
-        <v>14.89606250263938</v>
+        <v>14.89606250263935</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.771060465697019</v>
+        <v>7.771060465696991</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.7992743726022</v>
+        <v>303.7992743726021</v>
       </c>
       <c r="C26" t="n">
         <v>286.3383244801291</v>
       </c>
       <c r="D26" t="n">
-        <v>275.7484743298046</v>
+        <v>275.7484743298045</v>
       </c>
       <c r="E26" t="n">
-        <v>302.9958027813834</v>
+        <v>302.9958027813833</v>
       </c>
       <c r="F26" t="n">
-        <v>327.9414784508331</v>
+        <v>327.941478450833</v>
       </c>
       <c r="G26" t="n">
-        <v>333.5624005662935</v>
+        <v>333.5624005662934</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8056463152739</v>
+        <v>231.8056463152738</v>
       </c>
       <c r="I26" t="n">
-        <v>23.37188754090408</v>
+        <v>23.37188754090404</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.1490262145322</v>
+        <v>66.14902621453216</v>
       </c>
       <c r="T26" t="n">
-        <v>131.8790255955194</v>
+        <v>131.8790255955193</v>
       </c>
       <c r="U26" t="n">
-        <v>172.1866240443211</v>
+        <v>172.186624044321</v>
       </c>
       <c r="V26" t="n">
-        <v>248.8176911792565</v>
+        <v>248.8176911792564</v>
       </c>
       <c r="W26" t="n">
-        <v>270.3064014265346</v>
+        <v>270.3064014265345</v>
       </c>
       <c r="X26" t="n">
-        <v>290.7965333875907</v>
+        <v>290.7965333875906</v>
       </c>
       <c r="Y26" t="n">
-        <v>307.3033713651752</v>
+        <v>307.3033713651751</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>97.73682805041007</v>
       </c>
       <c r="I27" t="n">
-        <v>37.70992210628421</v>
+        <v>37.70992210628422</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>6.950563157984178</v>
+        <v>6.950563157984192</v>
       </c>
       <c r="S27" t="n">
         <v>143.7986844789169</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.8974128910589</v>
+        <v>100.8974128910588</v>
       </c>
       <c r="C28" t="n">
-        <v>88.31225380774944</v>
+        <v>88.31225380774937</v>
       </c>
       <c r="D28" t="n">
-        <v>69.68090572733396</v>
+        <v>69.68090572733389</v>
       </c>
       <c r="E28" t="n">
-        <v>67.49939535569078</v>
+        <v>67.49939535569071</v>
       </c>
       <c r="F28" t="n">
-        <v>66.48648073205285</v>
+        <v>66.48648073205278</v>
       </c>
       <c r="G28" t="n">
-        <v>87.7978403910883</v>
+        <v>87.79784039108823</v>
       </c>
       <c r="H28" t="n">
-        <v>72.10275885647718</v>
+        <v>72.10275885647711</v>
       </c>
       <c r="I28" t="n">
-        <v>38.66722485605484</v>
+        <v>38.66722485605478</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76886488692967</v>
+        <v>41.76886488692961</v>
       </c>
       <c r="S28" t="n">
-        <v>123.1485588930458</v>
+        <v>123.1485588930457</v>
       </c>
       <c r="T28" t="n">
-        <v>143.6334886105734</v>
+        <v>143.6334886105733</v>
       </c>
       <c r="U28" t="n">
-        <v>207.3158127014402</v>
+        <v>207.3158127014401</v>
       </c>
       <c r="V28" t="n">
-        <v>173.2030760329496</v>
+        <v>173.2030760329495</v>
       </c>
       <c r="W28" t="n">
-        <v>207.5884310457126</v>
+        <v>207.5884310457125</v>
       </c>
       <c r="X28" t="n">
-        <v>146.7750880981588</v>
+        <v>146.7750880981587</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.6500860612164</v>
+        <v>139.6500860612163</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2795,13 @@
         <v>286.3383244801291</v>
       </c>
       <c r="D29" t="n">
-        <v>275.7484743298046</v>
+        <v>275.7484743298045</v>
       </c>
       <c r="E29" t="n">
         <v>302.9958027813834</v>
       </c>
       <c r="F29" t="n">
-        <v>327.9414784508331</v>
+        <v>327.941478450833</v>
       </c>
       <c r="G29" t="n">
         <v>333.5624005662935</v>
@@ -2846,7 +2846,7 @@
         <v>131.8790255955194</v>
       </c>
       <c r="U29" t="n">
-        <v>172.1866240443211</v>
+        <v>172.186624044321</v>
       </c>
       <c r="V29" t="n">
         <v>248.8176911792565</v>
@@ -2855,7 +2855,7 @@
         <v>270.3064014265346</v>
       </c>
       <c r="X29" t="n">
-        <v>290.7965333875907</v>
+        <v>290.7965333875906</v>
       </c>
       <c r="Y29" t="n">
         <v>307.3033713651752</v>
@@ -2889,7 +2889,7 @@
         <v>97.73682805041007</v>
       </c>
       <c r="I30" t="n">
-        <v>37.7099221062842</v>
+        <v>37.70992210628421</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.950563157984163</v>
+        <v>6.950563157984178</v>
       </c>
       <c r="S30" t="n">
         <v>143.7986844789169</v>
@@ -2950,25 +2950,25 @@
         <v>100.8974128910589</v>
       </c>
       <c r="C31" t="n">
-        <v>88.31225380774944</v>
+        <v>88.31225380774943</v>
       </c>
       <c r="D31" t="n">
-        <v>69.68090572733396</v>
+        <v>69.68090572733395</v>
       </c>
       <c r="E31" t="n">
-        <v>67.49939535569078</v>
+        <v>67.49939535569077</v>
       </c>
       <c r="F31" t="n">
-        <v>66.48648073205285</v>
+        <v>66.48648073205284</v>
       </c>
       <c r="G31" t="n">
-        <v>87.7978403910883</v>
+        <v>87.79784039108829</v>
       </c>
       <c r="H31" t="n">
-        <v>72.10275885647717</v>
+        <v>72.10275885647715</v>
       </c>
       <c r="I31" t="n">
-        <v>38.66722485605484</v>
+        <v>38.66722485605483</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>41.76886488692966</v>
       </c>
       <c r="S31" t="n">
-        <v>123.1485588930458</v>
+        <v>123.1485588930457</v>
       </c>
       <c r="T31" t="n">
         <v>143.6334886105734</v>
@@ -3013,7 +3013,7 @@
         <v>207.5884310457126</v>
       </c>
       <c r="X31" t="n">
-        <v>146.7750880981588</v>
+        <v>146.7750880981587</v>
       </c>
       <c r="Y31" t="n">
         <v>139.6500860612164</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.7992743726021</v>
+        <v>303.7992743726022</v>
       </c>
       <c r="C32" t="n">
         <v>286.3383244801291</v>
@@ -3035,19 +3035,19 @@
         <v>275.7484743298045</v>
       </c>
       <c r="E32" t="n">
-        <v>302.9958027813833</v>
+        <v>302.9958027813834</v>
       </c>
       <c r="F32" t="n">
         <v>327.941478450833</v>
       </c>
       <c r="G32" t="n">
-        <v>333.5624005662934</v>
+        <v>333.5624005662935</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8056463152738</v>
+        <v>231.8056463152739</v>
       </c>
       <c r="I32" t="n">
-        <v>23.37188754090403</v>
+        <v>23.37188754090407</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.14902621453214</v>
+        <v>66.1490262145322</v>
       </c>
       <c r="T32" t="n">
-        <v>131.8790255955193</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="U32" t="n">
         <v>172.186624044321</v>
@@ -3089,7 +3089,7 @@
         <v>248.8176911792565</v>
       </c>
       <c r="W32" t="n">
-        <v>270.3064014265345</v>
+        <v>270.3064014265346</v>
       </c>
       <c r="X32" t="n">
         <v>290.7965333875906</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.8974128910588</v>
+        <v>100.8974128910589</v>
       </c>
       <c r="C34" t="n">
-        <v>88.31225380774939</v>
+        <v>88.31225380774943</v>
       </c>
       <c r="D34" t="n">
-        <v>69.68090572733391</v>
+        <v>69.68090572733395</v>
       </c>
       <c r="E34" t="n">
-        <v>67.49939535569072</v>
+        <v>67.49939535569077</v>
       </c>
       <c r="F34" t="n">
-        <v>66.4864807320528</v>
+        <v>66.48648073205284</v>
       </c>
       <c r="G34" t="n">
-        <v>87.79784039108824</v>
+        <v>87.79784039108829</v>
       </c>
       <c r="H34" t="n">
-        <v>72.10275885647712</v>
+        <v>72.10275885647715</v>
       </c>
       <c r="I34" t="n">
-        <v>38.66722485605479</v>
+        <v>38.66722485605483</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76886488692961</v>
+        <v>41.76886488692966</v>
       </c>
       <c r="S34" t="n">
         <v>123.1485588930457</v>
       </c>
       <c r="T34" t="n">
-        <v>143.6334886105733</v>
+        <v>143.6334886105734</v>
       </c>
       <c r="U34" t="n">
-        <v>207.3158127014401</v>
+        <v>207.3158127014402</v>
       </c>
       <c r="V34" t="n">
         <v>173.2030760329496</v>
@@ -3253,7 +3253,7 @@
         <v>146.7750880981587</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.6500860612163</v>
+        <v>139.6500860612164</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>230.2504989673304</v>
+        <v>230.2504989673303</v>
       </c>
       <c r="C35" t="n">
         <v>212.7895490748573</v>
       </c>
       <c r="D35" t="n">
-        <v>202.1996989245328</v>
+        <v>202.1996989245327</v>
       </c>
       <c r="E35" t="n">
-        <v>229.4470273761116</v>
+        <v>229.4470273761115</v>
       </c>
       <c r="F35" t="n">
         <v>254.3927030455612</v>
@@ -3281,7 +3281,7 @@
         <v>260.0136251610217</v>
       </c>
       <c r="H35" t="n">
-        <v>158.2568709100021</v>
+        <v>158.256870910002</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>58.33025019024758</v>
+        <v>58.33025019024755</v>
       </c>
       <c r="U35" t="n">
-        <v>98.63784863904924</v>
+        <v>98.63784863904921</v>
       </c>
       <c r="V35" t="n">
         <v>175.2689157739847</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>27.34863748578707</v>
       </c>
       <c r="C37" t="n">
-        <v>14.76347840247763</v>
+        <v>14.7634784024776</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>14.24906498581649</v>
+        <v>14.24906498581646</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>49.59978348777396</v>
+        <v>86.20356620616744</v>
       </c>
       <c r="T37" t="n">
-        <v>222.5680559014518</v>
+        <v>70.08471320530153</v>
       </c>
       <c r="U37" t="n">
         <v>133.7670372961684</v>
       </c>
       <c r="V37" t="n">
-        <v>99.6543006276778</v>
+        <v>99.65430062767777</v>
       </c>
       <c r="W37" t="n">
-        <v>160.7261886313151</v>
+        <v>134.0396556404408</v>
       </c>
       <c r="X37" t="n">
-        <v>73.22631269288695</v>
+        <v>73.22631269288692</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.10131065594459</v>
+        <v>66.10131065594456</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>230.2504989673304</v>
+        <v>230.2504989673303</v>
       </c>
       <c r="C38" t="n">
         <v>212.7895490748573</v>
       </c>
       <c r="D38" t="n">
-        <v>202.1996989245328</v>
+        <v>202.1996989245327</v>
       </c>
       <c r="E38" t="n">
-        <v>229.4470273761116</v>
+        <v>229.4470273761115</v>
       </c>
       <c r="F38" t="n">
         <v>254.3927030455612</v>
@@ -3518,7 +3518,7 @@
         <v>260.0136251610217</v>
       </c>
       <c r="H38" t="n">
-        <v>158.2568709100021</v>
+        <v>158.256870910002</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,13 +3554,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>58.33025019024758</v>
+        <v>58.33025019024752</v>
       </c>
       <c r="U38" t="n">
-        <v>98.63784863904924</v>
+        <v>98.63784863904918</v>
       </c>
       <c r="V38" t="n">
-        <v>175.2689157739847</v>
+        <v>175.2689157739846</v>
       </c>
       <c r="W38" t="n">
         <v>196.7576260212628</v>
@@ -3569,7 +3569,7 @@
         <v>217.2477579823188</v>
       </c>
       <c r="Y38" t="n">
-        <v>233.7545959599034</v>
+        <v>233.7545959599033</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.34863748578709</v>
+        <v>27.34863748578704</v>
       </c>
       <c r="C40" t="n">
-        <v>14.76347840247763</v>
+        <v>45.3178810712901</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>14.24906498581649</v>
+        <v>14.24906498581643</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>49.59978348777396</v>
+        <v>49.59978348777391</v>
       </c>
       <c r="T40" t="n">
-        <v>70.08471320530155</v>
+        <v>70.0847132053015</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2503799923186</v>
+        <v>133.7670372961683</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>99.65430062767774</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>134.0396556404407</v>
       </c>
       <c r="X40" t="n">
-        <v>92.85055101054236</v>
+        <v>73.22631269288689</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.10131065594459</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>230.2504989673304</v>
+        <v>230.2504989673303</v>
       </c>
       <c r="C41" t="n">
         <v>212.7895490748573</v>
       </c>
       <c r="D41" t="n">
-        <v>202.1996989245328</v>
+        <v>202.1996989245327</v>
       </c>
       <c r="E41" t="n">
-        <v>229.4470273761116</v>
+        <v>229.4470273761115</v>
       </c>
       <c r="F41" t="n">
         <v>254.3927030455612</v>
@@ -3755,7 +3755,7 @@
         <v>260.0136251610217</v>
       </c>
       <c r="H41" t="n">
-        <v>158.2568709100021</v>
+        <v>158.256870910002</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>58.33025019024758</v>
+        <v>58.33025019024752</v>
       </c>
       <c r="U41" t="n">
-        <v>98.63784863904924</v>
+        <v>98.63784863904918</v>
       </c>
       <c r="V41" t="n">
-        <v>175.2689157739847</v>
+        <v>175.2689157739846</v>
       </c>
       <c r="W41" t="n">
         <v>196.7576260212628</v>
@@ -3806,7 +3806,7 @@
         <v>217.2477579823188</v>
       </c>
       <c r="Y41" t="n">
-        <v>233.7545959599034</v>
+        <v>233.7545959599033</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>27.34863748578704</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>14.76347840247757</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>14.24906498581649</v>
+        <v>166.7324076819667</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>151.0373261473556</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>49.59978348777396</v>
+        <v>49.59978348777391</v>
       </c>
       <c r="T43" t="n">
-        <v>70.08471320530155</v>
+        <v>93.8391001562873</v>
       </c>
       <c r="U43" t="n">
-        <v>133.7670372961684</v>
+        <v>133.7670372961683</v>
       </c>
       <c r="V43" t="n">
-        <v>99.6543006276778</v>
+        <v>99.65430062767774</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>134.0396556404407</v>
       </c>
       <c r="X43" t="n">
-        <v>73.22631269288695</v>
+        <v>73.22631269288689</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.34738638491638</v>
+        <v>66.10131065594453</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>230.2504989673304</v>
+        <v>230.2504989673303</v>
       </c>
       <c r="C44" t="n">
         <v>212.7895490748573</v>
       </c>
       <c r="D44" t="n">
-        <v>202.1996989245328</v>
+        <v>202.1996989245327</v>
       </c>
       <c r="E44" t="n">
-        <v>229.4470273761116</v>
+        <v>229.4470273761115</v>
       </c>
       <c r="F44" t="n">
         <v>254.3927030455612</v>
@@ -3992,7 +3992,7 @@
         <v>260.0136251610217</v>
       </c>
       <c r="H44" t="n">
-        <v>158.2568709100021</v>
+        <v>158.256870910002</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,13 +4028,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>58.33025019024758</v>
+        <v>58.33025019024751</v>
       </c>
       <c r="U44" t="n">
-        <v>98.63784863904924</v>
+        <v>98.6378486390492</v>
       </c>
       <c r="V44" t="n">
-        <v>175.2689157739847</v>
+        <v>175.2689157739846</v>
       </c>
       <c r="W44" t="n">
         <v>196.7576260212628</v>
@@ -4043,7 +4043,7 @@
         <v>217.2477579823188</v>
       </c>
       <c r="Y44" t="n">
-        <v>233.7545959599034</v>
+        <v>233.7545959599033</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>6.950563157983356</v>
+        <v>6.950563157982906</v>
       </c>
       <c r="S45" t="n">
         <v>143.7986844789169</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.34863748578709</v>
+        <v>27.34863748578704</v>
       </c>
       <c r="C46" t="n">
-        <v>14.76347840247763</v>
+        <v>39.92680385896852</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.24906498581649</v>
+        <v>14.24906498581643</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.378162588683722</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>49.59978348777396</v>
+        <v>49.59978348777391</v>
       </c>
       <c r="T46" t="n">
-        <v>70.08471320530155</v>
+        <v>70.0847132053015</v>
       </c>
       <c r="U46" t="n">
-        <v>133.7670372961684</v>
+        <v>133.7670372961683</v>
       </c>
       <c r="V46" t="n">
-        <v>99.6543006276778</v>
+        <v>99.65430062767774</v>
       </c>
       <c r="W46" t="n">
-        <v>159.7132740076773</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>73.22631269288689</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>66.10131065594453</v>
       </c>
     </row>
   </sheetData>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>720.531335965283</v>
+        <v>803.681908896715</v>
       </c>
       <c r="C11" t="n">
-        <v>490.3435808592823</v>
+        <v>567.9305289214743</v>
       </c>
       <c r="D11" t="n">
-        <v>490.3435808592823</v>
+        <v>567.9305289214743</v>
       </c>
       <c r="E11" t="n">
-        <v>490.3435808592823</v>
+        <v>315.3534132884012</v>
       </c>
       <c r="F11" t="n">
-        <v>212.5688130348459</v>
+        <v>315.3534132884012</v>
       </c>
       <c r="G11" t="n">
-        <v>212.5688130348459</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="H11" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="I11" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="J11" t="n">
-        <v>235.8387789302814</v>
+        <v>88.420331458492</v>
       </c>
       <c r="K11" t="n">
-        <v>371.2852043035864</v>
+        <v>223.866756831797</v>
       </c>
       <c r="L11" t="n">
-        <v>576.2202338293249</v>
+        <v>428.8017863575354</v>
       </c>
       <c r="M11" t="n">
-        <v>835.9193783736044</v>
+        <v>688.500930901815</v>
       </c>
       <c r="N11" t="n">
-        <v>1104.43453496254</v>
+        <v>957.0160874907504</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.650521888623</v>
+        <v>1344.650521888622</v>
       </c>
       <c r="P11" t="n">
         <v>1515.168308277804</v>
@@ -5066,25 +5066,25 @@
         <v>1595.047317871951</v>
       </c>
       <c r="S11" t="n">
-        <v>1595.047317871951</v>
+        <v>1581.709370488222</v>
       </c>
       <c r="T11" t="n">
-        <v>1515.315431719549</v>
+        <v>1581.709370488222</v>
       </c>
       <c r="U11" t="n">
-        <v>1394.868799659266</v>
+        <v>1581.709370488222</v>
       </c>
       <c r="V11" t="n">
-        <v>1197.017049280867</v>
+        <v>1383.857620109822</v>
       </c>
       <c r="W11" t="n">
-        <v>977.4595309759236</v>
+        <v>1164.300101804879</v>
       </c>
       <c r="X11" t="n">
-        <v>977.4595309759236</v>
+        <v>924.0454805089706</v>
       </c>
       <c r="Y11" t="n">
-        <v>720.531335965283</v>
+        <v>924.0454805089706</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>877.8383448916084</v>
+        <v>497.3654985939706</v>
       </c>
       <c r="C12" t="n">
-        <v>722.5458802083569</v>
+        <v>456.1236062780146</v>
       </c>
       <c r="D12" t="n">
-        <v>573.6114705471057</v>
+        <v>440.4003335819344</v>
       </c>
       <c r="E12" t="n">
-        <v>414.3740155416501</v>
+        <v>414.37401554165</v>
       </c>
       <c r="F12" t="n">
-        <v>267.8394575685351</v>
+        <v>267.839457568535</v>
       </c>
       <c r="G12" t="n">
         <v>130.625015095227</v>
       </c>
       <c r="H12" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="I12" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="J12" t="n">
-        <v>46.745657970083</v>
+        <v>171.5757829570877</v>
       </c>
       <c r="K12" t="n">
-        <v>150.2724592718941</v>
+        <v>275.1025842588989</v>
       </c>
       <c r="L12" t="n">
-        <v>335.7995607781405</v>
+        <v>460.6296857651453</v>
       </c>
       <c r="M12" t="n">
-        <v>571.657805660151</v>
+        <v>696.4879306471557</v>
       </c>
       <c r="N12" t="n">
-        <v>828.1671613818243</v>
+        <v>952.997286368829</v>
       </c>
       <c r="O12" t="n">
-        <v>1040.603313498156</v>
+        <v>1165.43343848516</v>
       </c>
       <c r="P12" t="n">
-        <v>1435.377524671464</v>
+        <v>1335.939749265497</v>
       </c>
       <c r="Q12" t="n">
         <v>1595.047317871951</v>
@@ -5145,25 +5145,25 @@
         <v>1588.0265470053</v>
       </c>
       <c r="S12" t="n">
-        <v>1575.986487527121</v>
+        <v>1442.775350561949</v>
       </c>
       <c r="T12" t="n">
-        <v>1513.123117244068</v>
+        <v>1246.700843313725</v>
       </c>
       <c r="U12" t="n">
-        <v>1284.999261016252</v>
+        <v>1018.576987085909</v>
       </c>
       <c r="V12" t="n">
-        <v>1183.05828974968</v>
+        <v>916.6360158193372</v>
       </c>
       <c r="W12" t="n">
-        <v>1062.03206998665</v>
+        <v>795.6097960563067</v>
       </c>
       <c r="X12" t="n">
-        <v>987.391706746288</v>
+        <v>720.9694328159449</v>
       </c>
       <c r="Y12" t="n">
-        <v>912.8425449465053</v>
+        <v>532.3696986488676</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376.6002120032509</v>
+        <v>171.8919035607021</v>
       </c>
       <c r="C13" t="n">
-        <v>340.8751660405151</v>
+        <v>136.1668575979663</v>
       </c>
       <c r="D13" t="n">
-        <v>323.9696635933506</v>
+        <v>119.2613551508016</v>
       </c>
       <c r="E13" t="n">
-        <v>309.2677069761286</v>
+        <v>104.5593985335796</v>
       </c>
       <c r="F13" t="n">
-        <v>295.5888964433893</v>
+        <v>90.88058800084031</v>
       </c>
       <c r="G13" t="n">
-        <v>127.1723230272613</v>
+        <v>55.67515154988339</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8205042880329</v>
+        <v>36.32333281065489</v>
       </c>
       <c r="I13" t="n">
-        <v>31.90094635743903</v>
+        <v>36.32333281065489</v>
       </c>
       <c r="J13" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="K13" t="n">
         <v>154.6150636799324</v>
@@ -5227,22 +5227,22 @@
         <v>1132.612522416001</v>
       </c>
       <c r="T13" t="n">
-        <v>1041.007441298898</v>
+        <v>907.7963043337267</v>
       </c>
       <c r="U13" t="n">
-        <v>885.07678029203</v>
+        <v>680.3684718494815</v>
       </c>
       <c r="V13" t="n">
-        <v>763.6034290513143</v>
+        <v>558.8951206087656</v>
       </c>
       <c r="W13" t="n">
-        <v>607.3973959795247</v>
+        <v>402.689087536976</v>
       </c>
       <c r="X13" t="n">
-        <v>512.6189820466785</v>
+        <v>307.9106736041298</v>
       </c>
       <c r="Y13" t="n">
-        <v>425.0375398683195</v>
+        <v>220.3292314257707</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>490.3435808592823</v>
+        <v>905.0451389599534</v>
       </c>
       <c r="C14" t="n">
-        <v>490.3435808592823</v>
+        <v>905.0451389599534</v>
       </c>
       <c r="D14" t="n">
-        <v>490.3435808592823</v>
+        <v>905.0451389599534</v>
       </c>
       <c r="E14" t="n">
-        <v>490.3435808592823</v>
+        <v>652.4680233268803</v>
       </c>
       <c r="F14" t="n">
-        <v>212.5688130348459</v>
+        <v>374.6932555024439</v>
       </c>
       <c r="G14" t="n">
-        <v>212.5688130348459</v>
+        <v>91.24078857148172</v>
       </c>
       <c r="H14" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="I14" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="J14" t="n">
-        <v>88.42033145849202</v>
+        <v>88.420331458492</v>
       </c>
       <c r="K14" t="n">
         <v>223.866756831797</v>
@@ -5294,34 +5294,34 @@
         <v>1197.232074416834</v>
       </c>
       <c r="P14" t="n">
-        <v>1489.053286045287</v>
+        <v>1367.749860806015</v>
       </c>
       <c r="Q14" t="n">
-        <v>1568.932295639434</v>
+        <v>1595.047317871951</v>
       </c>
       <c r="R14" t="n">
         <v>1595.047317871951</v>
       </c>
       <c r="S14" t="n">
-        <v>1581.709370488223</v>
+        <v>1581.709370488222</v>
       </c>
       <c r="T14" t="n">
-        <v>1581.709370488223</v>
+        <v>1501.97748433582</v>
       </c>
       <c r="U14" t="n">
-        <v>1461.26273842794</v>
+        <v>1381.530852275537</v>
       </c>
       <c r="V14" t="n">
-        <v>1263.41098804954</v>
+        <v>1381.530852275537</v>
       </c>
       <c r="W14" t="n">
-        <v>1043.853469744597</v>
+        <v>1161.973333970594</v>
       </c>
       <c r="X14" t="n">
-        <v>803.5988484486886</v>
+        <v>1161.973333970594</v>
       </c>
       <c r="Y14" t="n">
-        <v>743.732283958233</v>
+        <v>905.0451389599534</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>665.0637037865248</v>
+        <v>132.2191559258403</v>
       </c>
       <c r="C15" t="n">
-        <v>490.6106745053978</v>
+        <v>90.97726360988439</v>
       </c>
       <c r="D15" t="n">
-        <v>341.6762648441465</v>
+        <v>75.25399091380424</v>
       </c>
       <c r="E15" t="n">
-        <v>182.438809838691</v>
+        <v>49.22767287351986</v>
       </c>
       <c r="F15" t="n">
-        <v>35.90425186557597</v>
+        <v>35.90425186557596</v>
       </c>
       <c r="G15" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="H15" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="I15" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="J15" t="n">
-        <v>137.072349421383</v>
+        <v>171.5757829570877</v>
       </c>
       <c r="K15" t="n">
-        <v>502.4197353656469</v>
+        <v>275.1025842588989</v>
       </c>
       <c r="L15" t="n">
-        <v>687.9468368718933</v>
+        <v>460.6296857651453</v>
       </c>
       <c r="M15" t="n">
-        <v>923.8050817539038</v>
+        <v>696.4879306471557</v>
       </c>
       <c r="N15" t="n">
-        <v>1180.314437475577</v>
+        <v>952.997286368829</v>
       </c>
       <c r="O15" t="n">
-        <v>1392.750589591908</v>
+        <v>1165.43343848516</v>
       </c>
       <c r="P15" t="n">
         <v>1543.916264123988</v>
@@ -5385,22 +5385,22 @@
         <v>1575.986487527121</v>
       </c>
       <c r="T15" t="n">
-        <v>1433.559613104156</v>
+        <v>1379.911980278896</v>
       </c>
       <c r="U15" t="n">
-        <v>1338.646893841511</v>
+        <v>1151.78812405108</v>
       </c>
       <c r="V15" t="n">
-        <v>1236.705922574939</v>
+        <v>916.6360158193372</v>
       </c>
       <c r="W15" t="n">
-        <v>982.4685658467374</v>
+        <v>662.3986590911356</v>
       </c>
       <c r="X15" t="n">
-        <v>907.8282026063757</v>
+        <v>454.5471588856028</v>
       </c>
       <c r="Y15" t="n">
-        <v>700.0679038414218</v>
+        <v>246.7868601206489</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>167.4695171074859</v>
+        <v>300.680654072657</v>
       </c>
       <c r="C16" t="n">
-        <v>131.7444711447502</v>
+        <v>264.9556081099212</v>
       </c>
       <c r="D16" t="n">
-        <v>114.8389686975855</v>
+        <v>248.0501056627566</v>
       </c>
       <c r="E16" t="n">
-        <v>100.1370120803636</v>
+        <v>233.3481490455347</v>
       </c>
       <c r="F16" t="n">
-        <v>86.45820154762433</v>
+        <v>219.6693385127954</v>
       </c>
       <c r="G16" t="n">
-        <v>51.25276509666747</v>
+        <v>184.4639020618386</v>
       </c>
       <c r="H16" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="I16" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="J16" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="K16" t="n">
         <v>154.6150636799324</v>
@@ -5461,25 +5461,25 @@
         <v>1127.606197402988</v>
       </c>
       <c r="S16" t="n">
-        <v>923.4818275202362</v>
+        <v>1056.692964485407</v>
       </c>
       <c r="T16" t="n">
-        <v>831.8767464031328</v>
+        <v>965.0878833683039</v>
       </c>
       <c r="U16" t="n">
-        <v>675.9460853962649</v>
+        <v>809.1572223614361</v>
       </c>
       <c r="V16" t="n">
-        <v>554.4727341555492</v>
+        <v>687.6838711207204</v>
       </c>
       <c r="W16" t="n">
-        <v>398.2667010837597</v>
+        <v>531.4778380489308</v>
       </c>
       <c r="X16" t="n">
-        <v>303.4882871509135</v>
+        <v>436.6994241160846</v>
       </c>
       <c r="Y16" t="n">
-        <v>215.9068449725545</v>
+        <v>349.1179819377256</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>785.0112146372401</v>
+        <v>835.9425586450525</v>
       </c>
       <c r="C17" t="n">
-        <v>628.991720814402</v>
+        <v>679.9230648222143</v>
       </c>
       <c r="D17" t="n">
-        <v>483.669045325225</v>
+        <v>534.6003893330374</v>
       </c>
       <c r="E17" t="n">
-        <v>336.5575076610033</v>
+        <v>534.6003893330374</v>
       </c>
       <c r="F17" t="n">
         <v>336.5575076610033</v>
@@ -5507,13 +5507,13 @@
         <v>132.8369268824436</v>
       </c>
       <c r="H17" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="I17" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="J17" t="n">
-        <v>88.42033145849202</v>
+        <v>88.420331458492</v>
       </c>
       <c r="K17" t="n">
         <v>223.866756831797</v>
@@ -5546,19 +5546,19 @@
         <v>1595.047317871951</v>
       </c>
       <c r="U17" t="n">
-        <v>1554.332571964071</v>
+        <v>1554.33257196407</v>
       </c>
       <c r="V17" t="n">
         <v>1436.212707738073</v>
       </c>
       <c r="W17" t="n">
-        <v>1296.387075585533</v>
+        <v>1296.387075585532</v>
       </c>
       <c r="X17" t="n">
         <v>1135.864340442026</v>
       </c>
       <c r="Y17" t="n">
-        <v>958.6680315837881</v>
+        <v>1009.599375591601</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>661.0603982783879</v>
+        <v>892.4732645989288</v>
       </c>
       <c r="C18" t="n">
-        <v>486.6073689972608</v>
+        <v>718.0202353178018</v>
       </c>
       <c r="D18" t="n">
-        <v>337.6729593360096</v>
+        <v>569.0858256565506</v>
       </c>
       <c r="E18" t="n">
-        <v>178.4355043305541</v>
+        <v>409.8483706510951</v>
       </c>
       <c r="F18" t="n">
-        <v>31.90094635743903</v>
+        <v>263.3138126779801</v>
       </c>
       <c r="G18" t="n">
-        <v>31.90094635743903</v>
+        <v>168.7158455056151</v>
       </c>
       <c r="H18" t="n">
-        <v>31.90094635743903</v>
+        <v>69.9917767678271</v>
       </c>
       <c r="I18" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="J18" t="n">
-        <v>171.5757829570878</v>
+        <v>171.5757829570877</v>
       </c>
       <c r="K18" t="n">
         <v>275.1025842588989</v>
       </c>
       <c r="L18" t="n">
-        <v>460.6296857651453</v>
+        <v>479.9703220134021</v>
       </c>
       <c r="M18" t="n">
-        <v>715.828566895413</v>
+        <v>715.8285668954126</v>
       </c>
       <c r="N18" t="n">
-        <v>972.3379226170863</v>
+        <v>972.3379226170858</v>
       </c>
       <c r="O18" t="n">
-        <v>1184.774074733418</v>
+        <v>1184.774074733417</v>
       </c>
       <c r="P18" t="n">
-        <v>1335.939749265498</v>
+        <v>1335.939749265497</v>
       </c>
       <c r="Q18" t="n">
         <v>1595.047317871951</v>
@@ -5622,22 +5622,22 @@
         <v>1588.0265470053</v>
       </c>
       <c r="T18" t="n">
-        <v>1588.0265470053</v>
+        <v>1391.952039757075</v>
       </c>
       <c r="U18" t="n">
-        <v>1526.516700463933</v>
+        <v>1376.771206646833</v>
       </c>
       <c r="V18" t="n">
-        <v>1291.36459223219</v>
+        <v>1141.61909841509</v>
       </c>
       <c r="W18" t="n">
-        <v>1037.127235503989</v>
+        <v>1100.324764804462</v>
       </c>
       <c r="X18" t="n">
-        <v>829.2757352984559</v>
+        <v>892.4732645989288</v>
       </c>
       <c r="Y18" t="n">
-        <v>829.2757352984559</v>
+        <v>892.4732645989288</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.3233328106549</v>
+        <v>131.3886504648423</v>
       </c>
       <c r="C19" t="n">
-        <v>36.3233328106549</v>
+        <v>131.3886504648423</v>
       </c>
       <c r="D19" t="n">
-        <v>36.3233328106549</v>
+        <v>131.3886504648423</v>
       </c>
       <c r="E19" t="n">
-        <v>36.3233328106549</v>
+        <v>131.3886504648423</v>
       </c>
       <c r="F19" t="n">
-        <v>36.3233328106549</v>
+        <v>131.3886504648423</v>
       </c>
       <c r="G19" t="n">
-        <v>36.3233328106549</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="H19" t="n">
-        <v>36.3233328106549</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="I19" t="n">
-        <v>36.3233328106549</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="J19" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="K19" t="n">
         <v>154.6150636799324</v>
@@ -5704,19 +5704,19 @@
         <v>774.5851673685556</v>
       </c>
       <c r="U19" t="n">
-        <v>603.3210748599028</v>
+        <v>485.4433693965166</v>
       </c>
       <c r="V19" t="n">
-        <v>561.5796097715894</v>
+        <v>443.7019043082033</v>
       </c>
       <c r="W19" t="n">
-        <v>485.1054628522023</v>
+        <v>367.2277573888162</v>
       </c>
       <c r="X19" t="n">
-        <v>257.115911954185</v>
+        <v>352.1812296083724</v>
       </c>
       <c r="Y19" t="n">
-        <v>36.3233328106549</v>
+        <v>131.3886504648423</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1008.787788125723</v>
+        <v>835.9425586450524</v>
       </c>
       <c r="C20" t="n">
-        <v>852.768294302885</v>
+        <v>679.9230648222142</v>
       </c>
       <c r="D20" t="n">
-        <v>707.4456188137081</v>
+        <v>534.6003893330372</v>
       </c>
       <c r="E20" t="n">
         <v>534.6003893330372</v>
@@ -5741,37 +5741,37 @@
         <v>336.5575076610033</v>
       </c>
       <c r="G20" t="n">
-        <v>132.8369268824436</v>
+        <v>132.8369268824435</v>
       </c>
       <c r="H20" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="I20" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="J20" t="n">
-        <v>88.42033145849202</v>
+        <v>88.420331458492</v>
       </c>
       <c r="K20" t="n">
-        <v>223.866756831797</v>
+        <v>371.2852043035855</v>
       </c>
       <c r="L20" t="n">
-        <v>550.1052115968072</v>
+        <v>576.220233829324</v>
       </c>
       <c r="M20" t="n">
-        <v>809.8043561410867</v>
+        <v>835.9193783736035</v>
       </c>
       <c r="N20" t="n">
-        <v>1078.319512730022</v>
+        <v>1104.434534962539</v>
       </c>
       <c r="O20" t="n">
-        <v>1318.535499656105</v>
+        <v>1344.650521888622</v>
       </c>
       <c r="P20" t="n">
-        <v>1489.053286045287</v>
+        <v>1515.168308277804</v>
       </c>
       <c r="Q20" t="n">
-        <v>1568.932295639434</v>
+        <v>1595.047317871951</v>
       </c>
       <c r="R20" t="n">
         <v>1595.047317871951</v>
@@ -5783,19 +5783,19 @@
         <v>1595.047317871951</v>
       </c>
       <c r="U20" t="n">
-        <v>1595.047317871951</v>
+        <v>1554.33257196407</v>
       </c>
       <c r="V20" t="n">
-        <v>1476.927453645954</v>
+        <v>1436.212707738073</v>
       </c>
       <c r="W20" t="n">
-        <v>1337.101821493413</v>
+        <v>1296.387075585532</v>
       </c>
       <c r="X20" t="n">
-        <v>1337.101821493413</v>
+        <v>1135.864340442026</v>
       </c>
       <c r="Y20" t="n">
-        <v>1182.444605072271</v>
+        <v>1009.599375591601</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>492.5028277731253</v>
+        <v>719.5929069287822</v>
       </c>
       <c r="C21" t="n">
-        <v>318.0497984919983</v>
+        <v>545.1398776476552</v>
       </c>
       <c r="D21" t="n">
-        <v>169.1153888307471</v>
+        <v>396.205467986404</v>
       </c>
       <c r="E21" t="n">
-        <v>169.1153888307471</v>
+        <v>236.9680129809485</v>
       </c>
       <c r="F21" t="n">
-        <v>169.1153888307471</v>
+        <v>90.43345500783343</v>
       </c>
       <c r="G21" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="H21" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="I21" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="J21" t="n">
-        <v>46.745657970083</v>
+        <v>171.5757829570877</v>
       </c>
       <c r="K21" t="n">
-        <v>150.2724592718941</v>
+        <v>275.1025842588989</v>
       </c>
       <c r="L21" t="n">
-        <v>335.7995607781405</v>
+        <v>460.6296857651453</v>
       </c>
       <c r="M21" t="n">
-        <v>571.657805660151</v>
+        <v>715.8285668954126</v>
       </c>
       <c r="N21" t="n">
-        <v>828.1671613818243</v>
+        <v>972.3379226170858</v>
       </c>
       <c r="O21" t="n">
-        <v>1040.603313498156</v>
+        <v>1184.774074733417</v>
       </c>
       <c r="P21" t="n">
-        <v>1435.377524671464</v>
+        <v>1335.939749265497</v>
       </c>
       <c r="Q21" t="n">
         <v>1595.047317871951</v>
@@ -5856,25 +5856,25 @@
         <v>1595.047317871951</v>
       </c>
       <c r="S21" t="n">
-        <v>1586.082986186487</v>
+        <v>1595.047317871951</v>
       </c>
       <c r="T21" t="n">
-        <v>1586.082986186487</v>
+        <v>1595.047317871951</v>
       </c>
       <c r="U21" t="n">
-        <v>1357.95912995867</v>
+        <v>1579.866484761708</v>
       </c>
       <c r="V21" t="n">
-        <v>1122.807021726928</v>
+        <v>1557.657399647539</v>
       </c>
       <c r="W21" t="n">
-        <v>868.5696649987262</v>
+        <v>1303.420042919337</v>
       </c>
       <c r="X21" t="n">
-        <v>660.7181647931934</v>
+        <v>1095.568542713804</v>
       </c>
       <c r="Y21" t="n">
-        <v>660.7181647931934</v>
+        <v>887.8082439488503</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.7506017525013</v>
+        <v>36.32333281065489</v>
       </c>
       <c r="C22" t="n">
-        <v>579.7506017525013</v>
+        <v>36.32333281065489</v>
       </c>
       <c r="D22" t="n">
-        <v>429.6339623401656</v>
+        <v>36.32333281065489</v>
       </c>
       <c r="E22" t="n">
-        <v>281.7208687577725</v>
+        <v>36.32333281065489</v>
       </c>
       <c r="F22" t="n">
-        <v>134.8309212598621</v>
+        <v>36.32333281065489</v>
       </c>
       <c r="G22" t="n">
-        <v>134.8309212598621</v>
+        <v>36.32333281065489</v>
       </c>
       <c r="H22" t="n">
-        <v>134.8309212598621</v>
+        <v>36.32333281065489</v>
       </c>
       <c r="I22" t="n">
-        <v>36.3233328106549</v>
+        <v>36.32333281065489</v>
       </c>
       <c r="J22" t="n">
-        <v>31.90094635743903</v>
+        <v>31.90094635743901</v>
       </c>
       <c r="K22" t="n">
         <v>154.6150636799324</v>
@@ -5932,28 +5932,28 @@
         <v>1203.525755333582</v>
       </c>
       <c r="R22" t="n">
-        <v>1203.525755333582</v>
+        <v>1081.603096568119</v>
       </c>
       <c r="S22" t="n">
-        <v>1203.525755333582</v>
+        <v>1081.603096568119</v>
       </c>
       <c r="T22" t="n">
-        <v>978.7095372513073</v>
+        <v>892.4628728319417</v>
       </c>
       <c r="U22" t="n">
-        <v>902.5107623968419</v>
+        <v>603.3210748599028</v>
       </c>
       <c r="V22" t="n">
-        <v>860.7692973085285</v>
+        <v>348.6365866540158</v>
       </c>
       <c r="W22" t="n">
-        <v>784.2951503891414</v>
+        <v>59.21941661705524</v>
       </c>
       <c r="X22" t="n">
-        <v>769.2486226086976</v>
+        <v>44.17288883661145</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.3990665827411</v>
+        <v>36.32333281065489</v>
       </c>
     </row>
     <row r="23">
@@ -5969,67 +5969,67 @@
         <v>857.3351631495889</v>
       </c>
       <c r="D23" t="n">
-        <v>712.0124876604119</v>
+        <v>712.012487660412</v>
       </c>
       <c r="E23" t="n">
-        <v>539.1672581797412</v>
+        <v>539.1672581797413</v>
       </c>
       <c r="F23" t="n">
-        <v>341.1243765077072</v>
+        <v>341.1243765077073</v>
       </c>
       <c r="G23" t="n">
         <v>137.4037957291473</v>
       </c>
       <c r="H23" t="n">
-        <v>36.46781520414277</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="I23" t="n">
-        <v>36.46781520414277</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="J23" t="n">
-        <v>92.98720030519576</v>
+        <v>92.98720030519574</v>
       </c>
       <c r="K23" t="n">
         <v>228.4336256785007</v>
       </c>
       <c r="L23" t="n">
-        <v>433.3686552042392</v>
+        <v>621.7896196021802</v>
       </c>
       <c r="M23" t="n">
-        <v>693.0677997485187</v>
+        <v>881.4887641464597</v>
       </c>
       <c r="N23" t="n">
-        <v>961.5829563374541</v>
+        <v>1332.777977297726</v>
       </c>
       <c r="O23" t="n">
-        <v>1412.872169488721</v>
+        <v>1572.99396422381</v>
       </c>
       <c r="P23" t="n">
-        <v>1743.511750612992</v>
+        <v>1743.511750612991</v>
       </c>
       <c r="Q23" t="n">
-        <v>1823.390760207139</v>
+        <v>1823.390760207138</v>
       </c>
       <c r="R23" t="n">
-        <v>1823.390760207139</v>
+        <v>1823.390760207138</v>
       </c>
       <c r="S23" t="n">
-        <v>1823.390760207139</v>
+        <v>1823.390760207138</v>
       </c>
       <c r="T23" t="n">
-        <v>1823.390760207139</v>
+        <v>1823.390760207138</v>
       </c>
       <c r="U23" t="n">
-        <v>1782.676014299258</v>
+        <v>1782.676014299257</v>
       </c>
       <c r="V23" t="n">
-        <v>1664.556150073261</v>
+        <v>1664.55615007326</v>
       </c>
       <c r="W23" t="n">
         <v>1524.73051792072</v>
       </c>
       <c r="X23" t="n">
-        <v>1364.207782777214</v>
+        <v>1364.207782777213</v>
       </c>
       <c r="Y23" t="n">
         <v>1187.011473918975</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>703.7180975354796</v>
+        <v>557.1835395623647</v>
       </c>
       <c r="C24" t="n">
-        <v>529.2650682543526</v>
+        <v>382.7305102812376</v>
       </c>
       <c r="D24" t="n">
-        <v>380.3306585931014</v>
+        <v>233.7961006199864</v>
       </c>
       <c r="E24" t="n">
-        <v>221.0932035876459</v>
+        <v>74.55864561453085</v>
       </c>
       <c r="F24" t="n">
-        <v>74.55864561453086</v>
+        <v>74.55864561453085</v>
       </c>
       <c r="G24" t="n">
-        <v>74.55864561453086</v>
+        <v>74.55864561453085</v>
       </c>
       <c r="H24" t="n">
-        <v>74.55864561453086</v>
+        <v>74.55864561453085</v>
       </c>
       <c r="I24" t="n">
-        <v>36.46781520414277</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="J24" t="n">
-        <v>157.4392768980796</v>
+        <v>176.1426518037915</v>
       </c>
       <c r="K24" t="n">
-        <v>522.7866628423436</v>
+        <v>283.9336018074076</v>
       </c>
       <c r="L24" t="n">
-        <v>708.31376434859</v>
+        <v>469.460703313654</v>
       </c>
       <c r="M24" t="n">
-        <v>944.1720092306005</v>
+        <v>705.3189481956645</v>
       </c>
       <c r="N24" t="n">
-        <v>1200.681364952274</v>
+        <v>961.8283039173377</v>
       </c>
       <c r="O24" t="n">
-        <v>1413.117517068605</v>
+        <v>1413.117517068604</v>
       </c>
       <c r="P24" t="n">
-        <v>1564.283191600685</v>
+        <v>1564.283191600684</v>
       </c>
       <c r="Q24" t="n">
-        <v>1823.390760207139</v>
+        <v>1823.390760207138</v>
       </c>
       <c r="R24" t="n">
-        <v>1816.369989340488</v>
+        <v>1823.390760207138</v>
       </c>
       <c r="S24" t="n">
-        <v>1816.369989340488</v>
+        <v>1823.390760207138</v>
       </c>
       <c r="T24" t="n">
-        <v>1816.369989340488</v>
+        <v>1823.390760207138</v>
       </c>
       <c r="U24" t="n">
-        <v>1776.934698485979</v>
+        <v>1630.400140512864</v>
       </c>
       <c r="V24" t="n">
-        <v>1541.782590254236</v>
+        <v>1395.248032281121</v>
       </c>
       <c r="W24" t="n">
-        <v>1287.545233526034</v>
+        <v>1141.010675552919</v>
       </c>
       <c r="X24" t="n">
-        <v>1079.693733320501</v>
+        <v>933.1591753473865</v>
       </c>
       <c r="Y24" t="n">
-        <v>871.9334345555476</v>
+        <v>725.3988765824326</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.7845886642666</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="C25" t="n">
-        <v>774.7845886642666</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="D25" t="n">
-        <v>774.7845886642666</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="E25" t="n">
-        <v>626.8714950818735</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="F25" t="n">
-        <v>479.9815475839631</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="G25" t="n">
-        <v>312.2428463990645</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="H25" t="n">
-        <v>159.6798906946649</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="I25" t="n">
-        <v>40.89020165735865</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="J25" t="n">
-        <v>36.46781520414277</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="K25" t="n">
         <v>159.1819325266361</v>
@@ -6169,28 +6169,28 @@
         <v>1208.092624180286</v>
       </c>
       <c r="R25" t="n">
-        <v>1208.092624180286</v>
+        <v>1108.604920072882</v>
       </c>
       <c r="S25" t="n">
-        <v>1003.968254297534</v>
+        <v>904.4805501901307</v>
       </c>
       <c r="T25" t="n">
-        <v>992.0950593328329</v>
+        <v>679.6643321078561</v>
       </c>
       <c r="U25" t="n">
-        <v>915.8962844783674</v>
+        <v>390.5225341358171</v>
       </c>
       <c r="V25" t="n">
-        <v>874.1548193900541</v>
+        <v>135.8380459299302</v>
       </c>
       <c r="W25" t="n">
-        <v>797.680672470667</v>
+        <v>59.36389901054311</v>
       </c>
       <c r="X25" t="n">
-        <v>782.6341446902231</v>
+        <v>44.31737123009931</v>
       </c>
       <c r="Y25" t="n">
-        <v>774.7845886642666</v>
+        <v>36.46781520414275</v>
       </c>
     </row>
     <row r="26">
@@ -6212,52 +6212,52 @@
         <v>999.5957780425074</v>
       </c>
       <c r="F26" t="n">
-        <v>668.3417594053028</v>
+        <v>668.3417594053024</v>
       </c>
       <c r="G26" t="n">
-        <v>331.410041661572</v>
+        <v>331.4100416615715</v>
       </c>
       <c r="H26" t="n">
-        <v>97.2629241713967</v>
+        <v>97.26292417139662</v>
       </c>
       <c r="I26" t="n">
-        <v>73.65495695836228</v>
+        <v>73.65495695836223</v>
       </c>
       <c r="J26" t="n">
-        <v>130.1743420594153</v>
+        <v>297.5799910797682</v>
       </c>
       <c r="K26" t="n">
-        <v>586.5247258781733</v>
+        <v>433.0264164530731</v>
       </c>
       <c r="L26" t="n">
-        <v>1204.944357808858</v>
+        <v>1051.446048383757</v>
       </c>
       <c r="M26" t="n">
-        <v>1909.661900511041</v>
+        <v>1756.163591085941</v>
       </c>
       <c r="N26" t="n">
-        <v>2611.150512267841</v>
+        <v>2457.652202842741</v>
       </c>
       <c r="O26" t="n">
-        <v>3228.358678644042</v>
+        <v>2877.463467859192</v>
       </c>
       <c r="P26" t="n">
-        <v>3602.868838323967</v>
+        <v>3366.561975338141</v>
       </c>
       <c r="Q26" t="n">
-        <v>3682.747847918114</v>
+        <v>3656.632825685594</v>
       </c>
       <c r="R26" t="n">
-        <v>3682.747847918114</v>
+        <v>3682.747847918111</v>
       </c>
       <c r="S26" t="n">
-        <v>3615.930649721617</v>
+        <v>3615.930649721614</v>
       </c>
       <c r="T26" t="n">
-        <v>3482.719512756446</v>
+        <v>3482.719512756443</v>
       </c>
       <c r="U26" t="n">
-        <v>3308.793629883393</v>
+        <v>3308.793629883392</v>
       </c>
       <c r="V26" t="n">
         <v>3057.462628692224</v>
@@ -6297,31 +6297,31 @@
         <v>210.4698561065383</v>
       </c>
       <c r="H27" t="n">
-        <v>111.7457873687504</v>
+        <v>111.7457873687503</v>
       </c>
       <c r="I27" t="n">
-        <v>73.65495695836228</v>
+        <v>73.65495695836223</v>
       </c>
       <c r="J27" t="n">
-        <v>88.49966857100625</v>
+        <v>213.3297935580109</v>
       </c>
       <c r="K27" t="n">
-        <v>192.0264698728174</v>
+        <v>578.6771795022748</v>
       </c>
       <c r="L27" t="n">
-        <v>744.6855132294884</v>
+        <v>1131.336222858946</v>
       </c>
       <c r="M27" t="n">
-        <v>980.5437581114988</v>
+        <v>1828.242480853456</v>
       </c>
       <c r="N27" t="n">
-        <v>1688.543146028933</v>
+        <v>2211.797801840962</v>
       </c>
       <c r="O27" t="n">
-        <v>1900.979298145265</v>
+        <v>2424.233953957293</v>
       </c>
       <c r="P27" t="n">
-        <v>2367.423113630882</v>
+        <v>2575.399628489373</v>
       </c>
       <c r="Q27" t="n">
         <v>2626.530682237336</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>569.1568354699253</v>
+        <v>569.1568354699241</v>
       </c>
       <c r="C28" t="n">
-        <v>479.9525386944208</v>
+        <v>479.9525386944197</v>
       </c>
       <c r="D28" t="n">
-        <v>409.5677854344875</v>
+        <v>409.5677854344865</v>
       </c>
       <c r="E28" t="n">
-        <v>341.3865780044968</v>
+        <v>341.3865780044958</v>
       </c>
       <c r="F28" t="n">
-        <v>274.2285166589889</v>
+        <v>274.228516658988</v>
       </c>
       <c r="G28" t="n">
-        <v>185.5438293952633</v>
+        <v>185.5438293952625</v>
       </c>
       <c r="H28" t="n">
-        <v>112.7127598432662</v>
+        <v>112.7127598432661</v>
       </c>
       <c r="I28" t="n">
-        <v>73.65495695836228</v>
+        <v>73.65495695836223</v>
       </c>
       <c r="J28" t="n">
         <v>147.465797613535</v>
@@ -6394,40 +6394,40 @@
         <v>951.6758365258079</v>
       </c>
       <c r="N28" t="n">
-        <v>1264.181742072733</v>
+        <v>1264.181742072732</v>
       </c>
       <c r="O28" t="n">
-        <v>1542.78069216049</v>
+        <v>1542.780692160489</v>
       </c>
       <c r="P28" t="n">
-        <v>1768.928025707158</v>
+        <v>1768.928025707157</v>
       </c>
       <c r="Q28" t="n">
-        <v>1866.107157915466</v>
+        <v>1866.107157915465</v>
       </c>
       <c r="R28" t="n">
-        <v>1823.916385302406</v>
+        <v>1823.916385302404</v>
       </c>
       <c r="S28" t="n">
-        <v>1699.523901572057</v>
+        <v>1699.523901572055</v>
       </c>
       <c r="T28" t="n">
-        <v>1554.439569642185</v>
+        <v>1554.439569642183</v>
       </c>
       <c r="U28" t="n">
-        <v>1345.029657822548</v>
+        <v>1345.029657822546</v>
       </c>
       <c r="V28" t="n">
-        <v>1170.077055769063</v>
+        <v>1170.077055769062</v>
       </c>
       <c r="W28" t="n">
-        <v>960.3917718845053</v>
+        <v>960.3917718845037</v>
       </c>
       <c r="X28" t="n">
-        <v>812.1341071388903</v>
+        <v>812.1341071388888</v>
       </c>
       <c r="Y28" t="n">
-        <v>671.0734141477626</v>
+        <v>671.0734141477612</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>1873.416587730708</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.185956942698</v>
+        <v>1584.185956942699</v>
       </c>
       <c r="D29" t="n">
-        <v>1305.65214448835</v>
+        <v>1305.652144488351</v>
       </c>
       <c r="E29" t="n">
-        <v>999.5957780425085</v>
+        <v>999.5957780425086</v>
       </c>
       <c r="F29" t="n">
-        <v>668.3417594053033</v>
+        <v>668.3417594053035</v>
       </c>
       <c r="G29" t="n">
-        <v>331.4100416615729</v>
+        <v>331.4100416615727</v>
       </c>
       <c r="H29" t="n">
-        <v>97.26292417139668</v>
+        <v>97.26292417139669</v>
       </c>
       <c r="I29" t="n">
-        <v>73.65495695836226</v>
+        <v>73.65495695836228</v>
       </c>
       <c r="J29" t="n">
         <v>130.1743420594153</v>
       </c>
       <c r="K29" t="n">
-        <v>586.5247258781734</v>
+        <v>586.5247258781733</v>
       </c>
       <c r="L29" t="n">
         <v>1204.944357808858</v>
@@ -6476,16 +6476,16 @@
         <v>2611.150512267841</v>
       </c>
       <c r="O29" t="n">
-        <v>2903.578490091711</v>
+        <v>3228.358678644042</v>
       </c>
       <c r="P29" t="n">
-        <v>3392.67699757066</v>
+        <v>3602.868838323967</v>
       </c>
       <c r="Q29" t="n">
-        <v>3682.747847918113</v>
+        <v>3682.747847918114</v>
       </c>
       <c r="R29" t="n">
-        <v>3682.747847918113</v>
+        <v>3682.747847918114</v>
       </c>
       <c r="S29" t="n">
         <v>3615.930649721617</v>
@@ -6497,13 +6497,13 @@
         <v>3308.793629883394</v>
       </c>
       <c r="V29" t="n">
-        <v>3057.462628692225</v>
+        <v>3057.462628692226</v>
       </c>
       <c r="W29" t="n">
         <v>2784.425859574514</v>
       </c>
       <c r="X29" t="n">
-        <v>2490.691987465836</v>
+        <v>2490.691987465837</v>
       </c>
       <c r="Y29" t="n">
         <v>2180.284541642427</v>
@@ -6534,25 +6534,25 @@
         <v>210.4698561065383</v>
       </c>
       <c r="H30" t="n">
-        <v>111.7457873687503</v>
+        <v>111.7457873687504</v>
       </c>
       <c r="I30" t="n">
-        <v>73.65495695836226</v>
+        <v>73.65495695836228</v>
       </c>
       <c r="J30" t="n">
         <v>213.329793558011</v>
       </c>
       <c r="K30" t="n">
-        <v>578.6771795022751</v>
+        <v>578.677179502275</v>
       </c>
       <c r="L30" t="n">
         <v>1131.336222858946</v>
       </c>
       <c r="M30" t="n">
-        <v>1432.03379030726</v>
+        <v>1367.194467740956</v>
       </c>
       <c r="N30" t="n">
-        <v>1688.543146028933</v>
+        <v>1623.70382346263</v>
       </c>
       <c r="O30" t="n">
         <v>1900.979298145265</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>569.1568354699247</v>
+        <v>569.1568354699252</v>
       </c>
       <c r="C31" t="n">
-        <v>479.9525386944202</v>
+        <v>479.9525386944207</v>
       </c>
       <c r="D31" t="n">
-        <v>409.5677854344869</v>
+        <v>409.5677854344874</v>
       </c>
       <c r="E31" t="n">
-        <v>341.3865780044962</v>
+        <v>341.3865780044968</v>
       </c>
       <c r="F31" t="n">
-        <v>274.2285166589883</v>
+        <v>274.2285166589888</v>
       </c>
       <c r="G31" t="n">
-        <v>185.5438293952627</v>
+        <v>185.5438293952633</v>
       </c>
       <c r="H31" t="n">
-        <v>112.7127598432661</v>
+        <v>112.7127598432662</v>
       </c>
       <c r="I31" t="n">
-        <v>73.65495695836226</v>
+        <v>73.65495695836228</v>
       </c>
       <c r="J31" t="n">
         <v>147.465797613535</v>
@@ -6625,46 +6625,46 @@
         <v>348.325136553998</v>
       </c>
       <c r="L31" t="n">
-        <v>639.028613955842</v>
+        <v>639.0286139558427</v>
       </c>
       <c r="M31" t="n">
-        <v>951.675836525808</v>
+        <v>951.6758365258088</v>
       </c>
       <c r="N31" t="n">
-        <v>1264.181742072732</v>
+        <v>1264.181742072733</v>
       </c>
       <c r="O31" t="n">
-        <v>1542.780692160489</v>
+        <v>1542.78069216049</v>
       </c>
       <c r="P31" t="n">
-        <v>1768.928025707157</v>
+        <v>1768.928025707158</v>
       </c>
       <c r="Q31" t="n">
-        <v>1866.107157915465</v>
+        <v>1866.107157915466</v>
       </c>
       <c r="R31" t="n">
-        <v>1823.916385302405</v>
+        <v>1823.916385302406</v>
       </c>
       <c r="S31" t="n">
-        <v>1699.523901572056</v>
+        <v>1699.523901572057</v>
       </c>
       <c r="T31" t="n">
         <v>1554.439569642184</v>
       </c>
       <c r="U31" t="n">
-        <v>1345.029657822547</v>
+        <v>1345.029657822548</v>
       </c>
       <c r="V31" t="n">
         <v>1170.077055769063</v>
       </c>
       <c r="W31" t="n">
-        <v>960.3917718845044</v>
+        <v>960.391771884505</v>
       </c>
       <c r="X31" t="n">
-        <v>812.1341071388895</v>
+        <v>812.1341071388902</v>
       </c>
       <c r="Y31" t="n">
-        <v>671.0734141477619</v>
+        <v>671.0734141477625</v>
       </c>
     </row>
     <row r="32">
@@ -6686,58 +6686,58 @@
         <v>999.5957780425078</v>
       </c>
       <c r="F32" t="n">
-        <v>668.341759405303</v>
+        <v>668.3417594053028</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4100416615722</v>
+        <v>331.410041661572</v>
       </c>
       <c r="H32" t="n">
-        <v>97.26292417139661</v>
+        <v>97.26292417139668</v>
       </c>
       <c r="I32" t="n">
-        <v>73.65495695836223</v>
+        <v>73.65495695836226</v>
       </c>
       <c r="J32" t="n">
-        <v>130.1743420594152</v>
+        <v>297.5799910797683</v>
       </c>
       <c r="K32" t="n">
-        <v>471.9363780791465</v>
+        <v>433.0264164530732</v>
       </c>
       <c r="L32" t="n">
-        <v>1090.356010009831</v>
+        <v>854.0491470240088</v>
       </c>
       <c r="M32" t="n">
-        <v>1795.073552712015</v>
+        <v>1558.766689726192</v>
       </c>
       <c r="N32" t="n">
-        <v>2496.562164468814</v>
+        <v>2260.255301482992</v>
       </c>
       <c r="O32" t="n">
-        <v>3113.770330845016</v>
+        <v>2877.463467859194</v>
       </c>
       <c r="P32" t="n">
-        <v>3602.868838323965</v>
+        <v>3366.561975338143</v>
       </c>
       <c r="Q32" t="n">
-        <v>3682.747847918112</v>
+        <v>3656.632825685595</v>
       </c>
       <c r="R32" t="n">
-        <v>3682.747847918112</v>
+        <v>3682.747847918113</v>
       </c>
       <c r="S32" t="n">
-        <v>3615.930649721615</v>
+        <v>3615.930649721616</v>
       </c>
       <c r="T32" t="n">
         <v>3482.719512756444</v>
       </c>
       <c r="U32" t="n">
-        <v>3308.793629883392</v>
+        <v>3308.793629883393</v>
       </c>
       <c r="V32" t="n">
         <v>3057.462628692224</v>
       </c>
       <c r="W32" t="n">
-        <v>2784.425859574512</v>
+        <v>2784.425859574513</v>
       </c>
       <c r="X32" t="n">
         <v>2490.691987465835</v>
@@ -6765,16 +6765,16 @@
         <v>494.2188565529614</v>
       </c>
       <c r="F33" t="n">
-        <v>347.6842985798463</v>
+        <v>347.6842985798464</v>
       </c>
       <c r="G33" t="n">
         <v>210.4698561065383</v>
       </c>
       <c r="H33" t="n">
-        <v>111.7457873687503</v>
+        <v>111.7457873687504</v>
       </c>
       <c r="I33" t="n">
-        <v>73.65495695836223</v>
+        <v>73.65495695836226</v>
       </c>
       <c r="J33" t="n">
         <v>213.329793558011</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>569.1568354699247</v>
+        <v>569.1568354699241</v>
       </c>
       <c r="C34" t="n">
-        <v>479.9525386944202</v>
+        <v>479.9525386944197</v>
       </c>
       <c r="D34" t="n">
-        <v>409.567785434487</v>
+        <v>409.5677854344864</v>
       </c>
       <c r="E34" t="n">
-        <v>341.3865780044963</v>
+        <v>341.3865780044957</v>
       </c>
       <c r="F34" t="n">
-        <v>274.2285166589884</v>
+        <v>274.2285166589878</v>
       </c>
       <c r="G34" t="n">
-        <v>185.5438293952629</v>
+        <v>185.5438293952623</v>
       </c>
       <c r="H34" t="n">
         <v>112.7127598432661</v>
       </c>
       <c r="I34" t="n">
-        <v>73.65495695836223</v>
+        <v>73.65495695836226</v>
       </c>
       <c r="J34" t="n">
-        <v>147.465797613535</v>
+        <v>147.4657976135347</v>
       </c>
       <c r="K34" t="n">
-        <v>348.3251365539982</v>
+        <v>348.3251365539977</v>
       </c>
       <c r="L34" t="n">
-        <v>639.028613955842</v>
+        <v>639.0286139558416</v>
       </c>
       <c r="M34" t="n">
-        <v>951.6758365258081</v>
+        <v>951.6758365258075</v>
       </c>
       <c r="N34" t="n">
-        <v>1264.181742072733</v>
+        <v>1264.181742072732</v>
       </c>
       <c r="O34" t="n">
         <v>1542.780692160489</v>
       </c>
       <c r="P34" t="n">
-        <v>1768.928025707158</v>
+        <v>1768.928025707157</v>
       </c>
       <c r="Q34" t="n">
-        <v>1866.107157915466</v>
+        <v>1866.107157915465</v>
       </c>
       <c r="R34" t="n">
         <v>1823.916385302405</v>
@@ -6886,7 +6886,7 @@
         <v>1699.523901572056</v>
       </c>
       <c r="T34" t="n">
-        <v>1554.439569642184</v>
+        <v>1554.439569642183</v>
       </c>
       <c r="U34" t="n">
         <v>1345.029657822547</v>
@@ -6895,13 +6895,13 @@
         <v>1170.077055769063</v>
       </c>
       <c r="W34" t="n">
-        <v>960.3917718845048</v>
+        <v>960.3917718845044</v>
       </c>
       <c r="X34" t="n">
-        <v>812.1341071388896</v>
+        <v>812.134107138889</v>
       </c>
       <c r="Y34" t="n">
-        <v>671.0734141477619</v>
+        <v>671.0734141477614</v>
       </c>
     </row>
     <row r="35">
@@ -6917,61 +6917,61 @@
         <v>1167.564075726044</v>
       </c>
       <c r="D35" t="n">
-        <v>963.3219556002537</v>
+        <v>963.3219556002534</v>
       </c>
       <c r="E35" t="n">
-        <v>731.5572814829695</v>
+        <v>731.5572814829693</v>
       </c>
       <c r="F35" t="n">
-        <v>474.594955174322</v>
+        <v>474.5949551743215</v>
       </c>
       <c r="G35" t="n">
-        <v>211.9549297591484</v>
+        <v>211.9549297591483</v>
       </c>
       <c r="H35" t="n">
-        <v>52.09950459753008</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="I35" t="n">
-        <v>52.09950459753008</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="J35" t="n">
-        <v>108.6188896985831</v>
+        <v>276.0245387189361</v>
       </c>
       <c r="K35" t="n">
-        <v>564.9692735173412</v>
+        <v>732.3749225376941</v>
       </c>
       <c r="L35" t="n">
-        <v>1183.388905448026</v>
+        <v>1057.375583990804</v>
       </c>
       <c r="M35" t="n">
-        <v>1443.088049992305</v>
+        <v>1317.074728535083</v>
       </c>
       <c r="N35" t="n">
-        <v>1711.603206581241</v>
+        <v>1585.589885124018</v>
       </c>
       <c r="O35" t="n">
-        <v>2328.811372957442</v>
+        <v>1825.805872050102</v>
       </c>
       <c r="P35" t="n">
-        <v>2525.096220282357</v>
+        <v>2314.904379529051</v>
       </c>
       <c r="Q35" t="n">
-        <v>2604.975229876504</v>
+        <v>2604.975229876503</v>
       </c>
       <c r="R35" t="n">
-        <v>2604.975229876504</v>
+        <v>2604.975229876503</v>
       </c>
       <c r="S35" t="n">
-        <v>2604.975229876504</v>
+        <v>2604.975229876503</v>
       </c>
       <c r="T35" t="n">
-        <v>2546.05578523989</v>
+        <v>2546.055785239889</v>
       </c>
       <c r="U35" t="n">
-        <v>2446.421594695396</v>
+        <v>2446.421594695395</v>
       </c>
       <c r="V35" t="n">
-        <v>2269.382285832785</v>
+        <v>2269.382285832784</v>
       </c>
       <c r="W35" t="n">
         <v>2070.63720904363</v>
@@ -6990,52 +6990,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>955.288298139963</v>
+        <v>955.2882981399625</v>
       </c>
       <c r="C36" t="n">
-        <v>780.835268858836</v>
+        <v>780.8352688588355</v>
       </c>
       <c r="D36" t="n">
-        <v>631.9008591975846</v>
+        <v>631.9008591975842</v>
       </c>
       <c r="E36" t="n">
-        <v>472.6634041921291</v>
+        <v>472.6634041921286</v>
       </c>
       <c r="F36" t="n">
-        <v>326.128846219014</v>
+        <v>326.1288462190136</v>
       </c>
       <c r="G36" t="n">
-        <v>188.9144037457064</v>
+        <v>188.9144037457059</v>
       </c>
       <c r="H36" t="n">
-        <v>90.19033500791818</v>
+        <v>90.19033500791816</v>
       </c>
       <c r="I36" t="n">
-        <v>52.09950459753008</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="J36" t="n">
-        <v>66.94421621017405</v>
+        <v>191.7743411971788</v>
       </c>
       <c r="K36" t="n">
-        <v>170.4710175119852</v>
+        <v>295.3011424989899</v>
       </c>
       <c r="L36" t="n">
-        <v>723.1300608686561</v>
+        <v>480.8282440052363</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.531156720956</v>
+        <v>716.6864888872468</v>
       </c>
       <c r="N36" t="n">
-        <v>1485.04051244263</v>
+        <v>1277.063997584138</v>
       </c>
       <c r="O36" t="n">
-        <v>2087.400360642923</v>
+        <v>1879.423845784432</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.844176128541</v>
+        <v>2345.86766127005</v>
       </c>
       <c r="Q36" t="n">
-        <v>2604.975229876504</v>
+        <v>2604.975229876503</v>
       </c>
       <c r="R36" t="n">
         <v>2597.954459009853</v>
@@ -7053,10 +7053,10 @@
         <v>1793.352790858719</v>
       </c>
       <c r="W36" t="n">
-        <v>1539.115434130518</v>
+        <v>1539.115434130517</v>
       </c>
       <c r="X36" t="n">
-        <v>1331.263933924985</v>
+        <v>1331.263933924984</v>
       </c>
       <c r="Y36" t="n">
         <v>1123.503635160031</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>228.2950514775557</v>
+        <v>526.3247844722845</v>
       </c>
       <c r="C37" t="n">
-        <v>213.3824470306086</v>
+        <v>511.4121800253374</v>
       </c>
       <c r="D37" t="n">
-        <v>213.3824470306086</v>
+        <v>361.2955406130017</v>
       </c>
       <c r="E37" t="n">
         <v>213.3824470306086</v>
       </c>
       <c r="F37" t="n">
-        <v>66.49249953269825</v>
+        <v>66.49249953269822</v>
       </c>
       <c r="G37" t="n">
-        <v>52.09950459753008</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="H37" t="n">
-        <v>52.09950459753008</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="I37" t="n">
-        <v>52.09950459753008</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="J37" t="n">
-        <v>52.09950459753008</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="K37" t="n">
-        <v>174.8136219200235</v>
+        <v>174.8136219200234</v>
       </c>
       <c r="L37" t="n">
         <v>387.3718777038977</v>
@@ -7120,25 +7120,25 @@
         <v>1223.724313573673</v>
       </c>
       <c r="S37" t="n">
-        <v>1173.623522171881</v>
+        <v>1136.650004274514</v>
       </c>
       <c r="T37" t="n">
-        <v>948.8073040896064</v>
+        <v>1065.857364673199</v>
       </c>
       <c r="U37" t="n">
-        <v>813.6890845985272</v>
+        <v>930.73914518212</v>
       </c>
       <c r="V37" t="n">
-        <v>713.0281748736002</v>
+        <v>830.0782354571929</v>
       </c>
       <c r="W37" t="n">
-        <v>550.6784893874233</v>
+        <v>694.6846439011922</v>
       </c>
       <c r="X37" t="n">
-        <v>476.7125169703658</v>
+        <v>620.7186714841347</v>
       </c>
       <c r="Y37" t="n">
-        <v>409.9435163077954</v>
+        <v>553.9496708215644</v>
       </c>
     </row>
     <row r="38">
@@ -7154,43 +7154,43 @@
         <v>1167.564075726045</v>
       </c>
       <c r="D38" t="n">
-        <v>963.3219556002538</v>
+        <v>963.3219556002542</v>
       </c>
       <c r="E38" t="n">
-        <v>731.5572814829693</v>
+        <v>731.5572814829699</v>
       </c>
       <c r="F38" t="n">
-        <v>474.5949551743215</v>
+        <v>474.5949551743222</v>
       </c>
       <c r="G38" t="n">
-        <v>211.9549297591484</v>
+        <v>211.9549297591483</v>
       </c>
       <c r="H38" t="n">
-        <v>52.09950459753006</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="I38" t="n">
-        <v>52.09950459753006</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="J38" t="n">
-        <v>108.618889698583</v>
+        <v>276.0245387189361</v>
       </c>
       <c r="K38" t="n">
-        <v>244.065315071888</v>
+        <v>411.470964092241</v>
       </c>
       <c r="L38" t="n">
-        <v>832.9397535782596</v>
+        <v>616.4059936179796</v>
       </c>
       <c r="M38" t="n">
-        <v>1092.638898122539</v>
+        <v>1261.137363012414</v>
       </c>
       <c r="N38" t="n">
-        <v>1737.370267516973</v>
+        <v>1904.170606213786</v>
       </c>
       <c r="O38" t="n">
-        <v>2354.578433893175</v>
+        <v>2144.38659313987</v>
       </c>
       <c r="P38" t="n">
-        <v>2525.096220282356</v>
+        <v>2314.904379529051</v>
       </c>
       <c r="Q38" t="n">
         <v>2604.975229876503</v>
@@ -7202,7 +7202,7 @@
         <v>2604.975229876503</v>
       </c>
       <c r="T38" t="n">
-        <v>2546.055785239889</v>
+        <v>2546.05578523989</v>
       </c>
       <c r="U38" t="n">
         <v>2446.421594695395</v>
@@ -7245,28 +7245,28 @@
         <v>188.9144037457061</v>
       </c>
       <c r="H39" t="n">
-        <v>90.19033500791815</v>
+        <v>90.19033500791816</v>
       </c>
       <c r="I39" t="n">
-        <v>52.09950459753006</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="J39" t="n">
-        <v>66.94421621017403</v>
+        <v>191.7743411971788</v>
       </c>
       <c r="K39" t="n">
-        <v>432.291602154438</v>
+        <v>557.1217271414428</v>
       </c>
       <c r="L39" t="n">
-        <v>984.950645511109</v>
+        <v>1109.780770498114</v>
       </c>
       <c r="M39" t="n">
-        <v>1220.808890393119</v>
+        <v>1345.639015380124</v>
       </c>
       <c r="N39" t="n">
-        <v>1477.318246114793</v>
+        <v>1602.148371101797</v>
       </c>
       <c r="O39" t="n">
-        <v>2079.678094315086</v>
+        <v>1879.423845784433</v>
       </c>
       <c r="P39" t="n">
         <v>2345.86766127005</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81.40510397964533</v>
+        <v>409.2747238886919</v>
       </c>
       <c r="C40" t="n">
-        <v>66.49249953269823</v>
+        <v>363.4990864429443</v>
       </c>
       <c r="D40" t="n">
-        <v>66.49249953269823</v>
+        <v>213.3824470306085</v>
       </c>
       <c r="E40" t="n">
-        <v>66.49249953269823</v>
+        <v>213.3824470306085</v>
       </c>
       <c r="F40" t="n">
-        <v>66.49249953269823</v>
+        <v>66.49249953269819</v>
       </c>
       <c r="G40" t="n">
-        <v>52.09950459753006</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="H40" t="n">
-        <v>52.09950459753006</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="I40" t="n">
-        <v>52.09950459753006</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="J40" t="n">
-        <v>52.09950459753006</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="K40" t="n">
         <v>174.8136219200234</v>
@@ -7363,19 +7363,19 @@
         <v>1102.830882570566</v>
       </c>
       <c r="U40" t="n">
-        <v>813.6890845985272</v>
+        <v>967.7126630794871</v>
       </c>
       <c r="V40" t="n">
-        <v>559.0045963926403</v>
+        <v>867.0517533545601</v>
       </c>
       <c r="W40" t="n">
-        <v>269.5874263556797</v>
+        <v>731.6581617985594</v>
       </c>
       <c r="X40" t="n">
-        <v>175.7989909914955</v>
+        <v>657.6921893815019</v>
       </c>
       <c r="Y40" t="n">
-        <v>109.0299903289252</v>
+        <v>436.8996102379717</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1382.503014185495</v>
+        <v>1382.503014185496</v>
       </c>
       <c r="C41" t="n">
-        <v>1167.564075726043</v>
+        <v>1167.564075726044</v>
       </c>
       <c r="D41" t="n">
-        <v>963.321955600253</v>
+        <v>963.3219556002537</v>
       </c>
       <c r="E41" t="n">
-        <v>731.5572814829686</v>
+        <v>731.5572814829695</v>
       </c>
       <c r="F41" t="n">
-        <v>474.5949551743213</v>
+        <v>474.594955174322</v>
       </c>
       <c r="G41" t="n">
         <v>211.9549297591483</v>
       </c>
       <c r="H41" t="n">
-        <v>52.09950459753006</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="I41" t="n">
-        <v>52.09950459753006</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="J41" t="n">
-        <v>108.618889698583</v>
+        <v>276.0245387189361</v>
       </c>
       <c r="K41" t="n">
-        <v>244.065315071888</v>
+        <v>732.3749225376941</v>
       </c>
       <c r="L41" t="n">
-        <v>862.4849470025724</v>
+        <v>937.3099520634327</v>
       </c>
       <c r="M41" t="n">
-        <v>1507.216316397007</v>
+        <v>1317.074728535083</v>
       </c>
       <c r="N41" t="n">
-        <v>1775.731472985942</v>
+        <v>1585.589885124018</v>
       </c>
       <c r="O41" t="n">
-        <v>2354.578433893175</v>
+        <v>1825.805872050102</v>
       </c>
       <c r="P41" t="n">
-        <v>2525.096220282356</v>
+        <v>2314.904379529051</v>
       </c>
       <c r="Q41" t="n">
         <v>2604.975229876503</v>
@@ -7439,7 +7439,7 @@
         <v>2604.975229876503</v>
       </c>
       <c r="T41" t="n">
-        <v>2546.055785239889</v>
+        <v>2546.05578523989</v>
       </c>
       <c r="U41" t="n">
         <v>2446.421594695395</v>
@@ -7448,13 +7448,13 @@
         <v>2269.382285832784</v>
       </c>
       <c r="W41" t="n">
-        <v>2070.637209043629</v>
+        <v>2070.63720904363</v>
       </c>
       <c r="X41" t="n">
-        <v>1851.195029263509</v>
+        <v>1851.19502926351</v>
       </c>
       <c r="Y41" t="n">
-        <v>1615.079275768657</v>
+        <v>1615.079275768658</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>188.9144037457061</v>
       </c>
       <c r="H42" t="n">
-        <v>90.19033500791815</v>
+        <v>90.19033500791816</v>
       </c>
       <c r="I42" t="n">
-        <v>52.09950459753006</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="J42" t="n">
-        <v>66.94421621017403</v>
+        <v>66.94421621017405</v>
       </c>
       <c r="K42" t="n">
-        <v>170.4710175119852</v>
+        <v>432.291602154438</v>
       </c>
       <c r="L42" t="n">
-        <v>355.9981190182316</v>
+        <v>984.950645511109</v>
       </c>
       <c r="M42" t="n">
-        <v>632.3326281897045</v>
+        <v>1220.808890393119</v>
       </c>
       <c r="N42" t="n">
-        <v>1277.063997584139</v>
+        <v>1485.04051244263</v>
       </c>
       <c r="O42" t="n">
-        <v>1879.423845784433</v>
+        <v>2087.400360642923</v>
       </c>
       <c r="P42" t="n">
-        <v>2345.86766127005</v>
+        <v>2553.844176128541</v>
       </c>
       <c r="Q42" t="n">
         <v>2604.975229876504</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>239.851068913821</v>
+        <v>539.3039721161309</v>
       </c>
       <c r="C43" t="n">
-        <v>70.91488598591411</v>
+        <v>524.3913676691839</v>
       </c>
       <c r="D43" t="n">
-        <v>70.91488598591411</v>
+        <v>524.3913676691839</v>
       </c>
       <c r="E43" t="n">
-        <v>70.91488598591411</v>
+        <v>524.3913676691839</v>
       </c>
       <c r="F43" t="n">
-        <v>70.91488598591411</v>
+        <v>377.5014201712735</v>
       </c>
       <c r="G43" t="n">
-        <v>56.52189105074594</v>
+        <v>209.0848467551455</v>
       </c>
       <c r="H43" t="n">
-        <v>56.52189105074594</v>
+        <v>56.52189105074595</v>
       </c>
       <c r="I43" t="n">
-        <v>56.52189105074594</v>
+        <v>56.52189105074595</v>
       </c>
       <c r="J43" t="n">
-        <v>52.09950459753006</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="K43" t="n">
         <v>174.8136219200234</v>
@@ -7597,22 +7597,22 @@
         <v>1173.623522171881</v>
       </c>
       <c r="T43" t="n">
-        <v>1102.830882570566</v>
+        <v>1078.836552317045</v>
       </c>
       <c r="U43" t="n">
-        <v>967.7126630794871</v>
+        <v>943.7183328259662</v>
       </c>
       <c r="V43" t="n">
-        <v>867.0517533545601</v>
+        <v>843.0574231010391</v>
       </c>
       <c r="W43" t="n">
-        <v>577.6345833175994</v>
+        <v>707.6638315450384</v>
       </c>
       <c r="X43" t="n">
-        <v>503.6686109005419</v>
+        <v>633.6978591279809</v>
       </c>
       <c r="Y43" t="n">
-        <v>421.4995337440607</v>
+        <v>566.9288584654107</v>
       </c>
     </row>
     <row r="44">
@@ -7628,52 +7628,52 @@
         <v>1167.564075726044</v>
       </c>
       <c r="D44" t="n">
-        <v>963.3219556002531</v>
+        <v>963.3219556002534</v>
       </c>
       <c r="E44" t="n">
-        <v>731.5572814829686</v>
+        <v>731.5572814829692</v>
       </c>
       <c r="F44" t="n">
-        <v>474.5949551743211</v>
+        <v>474.5949551743215</v>
       </c>
       <c r="G44" t="n">
-        <v>211.9549297591484</v>
+        <v>211.9549297591483</v>
       </c>
       <c r="H44" t="n">
-        <v>52.09950459753006</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="I44" t="n">
-        <v>52.09950459753006</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="J44" t="n">
-        <v>108.618889698583</v>
+        <v>276.0245387189361</v>
       </c>
       <c r="K44" t="n">
-        <v>244.065315071888</v>
+        <v>732.3749225376941</v>
       </c>
       <c r="L44" t="n">
-        <v>862.4849470025724</v>
+        <v>1057.375583990803</v>
       </c>
       <c r="M44" t="n">
-        <v>1122.184091546852</v>
+        <v>1317.074728535082</v>
       </c>
       <c r="N44" t="n">
-        <v>1390.699248135787</v>
+        <v>1585.589885124017</v>
       </c>
       <c r="O44" t="n">
-        <v>2007.907414511989</v>
+        <v>1825.805872050101</v>
       </c>
       <c r="P44" t="n">
-        <v>2497.005921990938</v>
+        <v>2314.90437952905</v>
       </c>
       <c r="Q44" t="n">
-        <v>2578.860207643985</v>
+        <v>2604.975229876502</v>
       </c>
       <c r="R44" t="n">
-        <v>2604.975229876503</v>
+        <v>2604.975229876502</v>
       </c>
       <c r="S44" t="n">
-        <v>2604.975229876503</v>
+        <v>2604.975229876502</v>
       </c>
       <c r="T44" t="n">
         <v>2546.055785239889</v>
@@ -7722,31 +7722,31 @@
         <v>90.19033500791815</v>
       </c>
       <c r="I45" t="n">
-        <v>52.09950459753006</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="J45" t="n">
-        <v>66.94421621017403</v>
+        <v>191.7743411971788</v>
       </c>
       <c r="K45" t="n">
-        <v>170.4710175119852</v>
+        <v>557.1217271414428</v>
       </c>
       <c r="L45" t="n">
-        <v>723.1300608686561</v>
+        <v>1109.780770498114</v>
       </c>
       <c r="M45" t="n">
-        <v>1367.86143026309</v>
+        <v>1345.639015380124</v>
       </c>
       <c r="N45" t="n">
-        <v>1624.370785984764</v>
+        <v>1602.148371101797</v>
       </c>
       <c r="O45" t="n">
-        <v>2226.730634185057</v>
+        <v>1879.423845784431</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.84417612854</v>
+        <v>2345.867661270049</v>
       </c>
       <c r="Q45" t="n">
-        <v>2604.975229876503</v>
+        <v>2604.975229876502</v>
       </c>
       <c r="R45" t="n">
         <v>2597.954459009853</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>229.3181975620384</v>
+        <v>409.2747238886919</v>
       </c>
       <c r="C46" t="n">
-        <v>214.4055931150913</v>
+        <v>368.9446189806429</v>
       </c>
       <c r="D46" t="n">
-        <v>214.4055931150913</v>
+        <v>218.8279795683072</v>
       </c>
       <c r="E46" t="n">
-        <v>66.49249953269823</v>
+        <v>70.91488598591404</v>
       </c>
       <c r="F46" t="n">
-        <v>66.49249953269823</v>
+        <v>70.91488598591404</v>
       </c>
       <c r="G46" t="n">
-        <v>52.09950459753006</v>
+        <v>56.52189105074593</v>
       </c>
       <c r="H46" t="n">
-        <v>52.09950459753006</v>
+        <v>56.52189105074593</v>
       </c>
       <c r="I46" t="n">
-        <v>52.09950459753006</v>
+        <v>56.52189105074593</v>
       </c>
       <c r="J46" t="n">
-        <v>52.09950459753006</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="K46" t="n">
         <v>174.8136219200234</v>
@@ -7843,13 +7843,13 @@
         <v>867.0517533545601</v>
       </c>
       <c r="W46" t="n">
-        <v>705.7252139528658</v>
+        <v>577.6345833175994</v>
       </c>
       <c r="X46" t="n">
-        <v>477.7356630548485</v>
+        <v>503.668610900542</v>
       </c>
       <c r="Y46" t="n">
-        <v>256.9430839113184</v>
+        <v>436.8996102379717</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>148.9075226987772</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>148.9075226987763</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>246.0692289305337</v>
+        <v>19.53599621036042</v>
       </c>
       <c r="Q12" t="n">
-        <v>109.6350903560853</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8942,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>122.5287123629006</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>148.9075226987765</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>39.33760953710589</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>91.23908227404037</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>229.6132839462095</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>148.9075226987771</v>
+        <v>148.9075226987765</v>
       </c>
       <c r="R17" t="n">
         <v>39.33760953710589</v>
@@ -9246,10 +9246,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>19.53599621036042</v>
       </c>
       <c r="M18" t="n">
-        <v>19.53599621036091</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>148.9075226987763</v>
       </c>
       <c r="L20" t="n">
-        <v>122.5287123629007</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>39.33760953710589</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>19.53599621036045</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>246.0692289305337</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>109.6350903560853</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9641,19 +9641,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>190.3242064625667</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>184.6202591538699</v>
       </c>
       <c r="O23" t="n">
-        <v>213.2052790153367</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>161.7391866011006</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>107.1987374558514</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>4.307220910914168</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.2657182171061</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9887,16 +9887,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>181.4093718084524</v>
       </c>
       <c r="P26" t="n">
-        <v>206.0529023138819</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>39.33760953710589</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>456.050537571476</v>
+        <v>128.3292578442752</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10124,16 +10124,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>52.7393847452386</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>206.0529023138819</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>39.33760953710586</v>
+        <v>39.33760953710589</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,13 +10197,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>65.49426521848812</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>65.49426521848852</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>208.3996067135619</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>218.2704050961586</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>39.33760953710589</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>121.2784160882534</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>26.02733427851882</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>39.33760953710589</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>272.2655060305957</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>306.9375282577963</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>387.8175848289223</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>388.9214392425808</v>
       </c>
       <c r="N38" t="n">
-        <v>380.0163765712111</v>
+        <v>378.30109758832</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>39.33760953710589</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>65.49426521848852</v>
       </c>
       <c r="P39" t="n">
-        <v>116.1857499221055</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>388.9214392425807</v>
+        <v>121.2784160882534</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>342.0514888698477</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>39.33760953710589</v>
@@ -11139,16 +11139,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>40.88511544390144</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>392.1434481543042</v>
+        <v>7.800269018017048</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>121.2784160882525</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.995228342323486</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>39.33760953710589</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>413.0031560731556</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>65.4942652184871</v>
       </c>
       <c r="P45" t="n">
-        <v>177.7251185973768</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>250.8548160679612</v>
+        <v>131.6948801718275</v>
       </c>
       <c r="C11" t="n">
-        <v>5.507988620547594</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>222.8040160251635</v>
+        <v>222.8040160251636</v>
       </c>
       <c r="E11" t="n">
-        <v>250.0513444767424</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>274.9970201461921</v>
       </c>
       <c r="G11" t="n">
-        <v>280.6179422616525</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>178.861188010633</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.20456790989119</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>119.2421657396801</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>237.8520750829496</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.3589130605342</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>250.8548160679612</v>
       </c>
       <c r="C14" t="n">
         <v>233.3938661754881</v>
@@ -23501,16 +23501,16 @@
         <v>222.8040160251635</v>
       </c>
       <c r="E14" t="n">
-        <v>250.0513444767424</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>280.6179422616525</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>120.1147442187306</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>78.93456729087836</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>195.8732328746155</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>237.8520750829496</v>
       </c>
       <c r="Y14" t="n">
-        <v>195.0910142149844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23738,10 +23738,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>25.47635489828451</v>
+        <v>171.116777185864</v>
       </c>
       <c r="F17" t="n">
-        <v>196.0624528553137</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>50.42203056773499</v>
       </c>
     </row>
     <row r="18">
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>171.116777185864</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>40.30759844880168</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,10 +24032,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>158.9175077920713</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>22.31370151272496</v>
+        <v>50.42203056773447</v>
       </c>
     </row>
     <row r="21">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855767.0207212771</v>
+        <v>855767.0207212769</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>950909.4806352396</v>
+        <v>950909.4806352395</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>950909.4806352396</v>
+        <v>950909.4806352395</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1029123.300723924</v>
+        <v>1029123.300723923</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491565.803230223</v>
+        <v>491565.8032302231</v>
       </c>
       <c r="C2" t="n">
         <v>491565.8032302231</v>
       </c>
       <c r="D2" t="n">
-        <v>491565.8032302231</v>
+        <v>491565.8032302228</v>
       </c>
       <c r="E2" t="n">
-        <v>432404.8241573216</v>
+        <v>432404.8241573218</v>
       </c>
       <c r="F2" t="n">
-        <v>432404.8241573215</v>
+        <v>432404.8241573217</v>
       </c>
       <c r="G2" t="n">
+        <v>482044.3684602583</v>
+      </c>
+      <c r="H2" t="n">
         <v>482044.3684602584</v>
       </c>
-      <c r="H2" t="n">
-        <v>482044.3684602583</v>
-      </c>
       <c r="I2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="J2" t="n">
+        <v>492625.0619185698</v>
+      </c>
+      <c r="K2" t="n">
         <v>492625.0619185694</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>492625.0619185697</v>
       </c>
-      <c r="L2" t="n">
-        <v>492625.0619185698</v>
-      </c>
       <c r="M2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="N2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="O2" t="n">
         <v>492625.0619185699</v>
@@ -26375,28 +26375,28 @@
         <v>785287.9654237999</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.80213202536106e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>63147.65383270269</v>
+        <v>63147.65383270272</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15180.32913230384</v>
+        <v>15180.32913230382</v>
       </c>
       <c r="J3" t="n">
-        <v>121622.4064642626</v>
+        <v>121622.4064642625</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.462967702536844e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>63147.65383270274</v>
+        <v>63147.65383270272</v>
       </c>
       <c r="M3" t="n">
-        <v>91065.75139834762</v>
+        <v>91065.75139834752</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
+        <v>165346.2753949818</v>
+      </c>
+      <c r="F4" t="n">
         <v>165346.2753949819</v>
-      </c>
-      <c r="F4" t="n">
-        <v>165346.275394982</v>
       </c>
       <c r="G4" t="n">
         <v>212567.3046188562</v>
@@ -26436,13 +26436,13 @@
         <v>212567.3046188562</v>
       </c>
       <c r="I4" t="n">
-        <v>220346.1549866099</v>
+        <v>220346.1549866098</v>
       </c>
       <c r="J4" t="n">
         <v>205672.9437790744</v>
       </c>
       <c r="K4" t="n">
-        <v>205672.9437790743</v>
+        <v>205672.9437790744</v>
       </c>
       <c r="L4" t="n">
         <v>205672.9437790744</v>
@@ -26454,10 +26454,10 @@
         <v>212520.3806816094</v>
       </c>
       <c r="O4" t="n">
-        <v>212520.3806816093</v>
+        <v>212520.3806816094</v>
       </c>
       <c r="P4" t="n">
-        <v>212520.3806816093</v>
+        <v>212520.3806816094</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>50546.64444716292</v>
+        <v>50546.64444716291</v>
       </c>
       <c r="F5" t="n">
-        <v>50546.64444716292</v>
+        <v>50546.64444716291</v>
       </c>
       <c r="G5" t="n">
         <v>57182.59458473977</v>
@@ -26488,16 +26488,16 @@
         <v>57182.59458473977</v>
       </c>
       <c r="I5" t="n">
-        <v>60653.41490823462</v>
+        <v>60653.41490823461</v>
       </c>
       <c r="J5" t="n">
+        <v>77828.70483865168</v>
+      </c>
+      <c r="K5" t="n">
         <v>77828.70483865173</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>77828.70483865171</v>
-      </c>
-      <c r="L5" t="n">
-        <v>77828.7048386517</v>
       </c>
       <c r="M5" t="n">
         <v>67629.73304396504</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10913.58295783014</v>
+        <v>10909.16937996209</v>
       </c>
       <c r="C6" t="n">
-        <v>10913.5829578302</v>
+        <v>10909.16937996209</v>
       </c>
       <c r="D6" t="n">
-        <v>10913.5829578302</v>
+        <v>10909.1693799618</v>
       </c>
       <c r="E6" t="n">
-        <v>-568776.0611086232</v>
+        <v>-569026.9787659615</v>
       </c>
       <c r="F6" t="n">
-        <v>216511.9043151766</v>
+        <v>216260.9866578382</v>
       </c>
       <c r="G6" t="n">
-        <v>149146.8154239597</v>
+        <v>149102.7292012167</v>
       </c>
       <c r="H6" t="n">
-        <v>212294.4692566624</v>
+        <v>212250.3830339194</v>
       </c>
       <c r="I6" t="n">
-        <v>196445.1628914218</v>
+        <v>196445.1628914219</v>
       </c>
       <c r="J6" t="n">
-        <v>87501.00683658072</v>
+        <v>87501.00683658123</v>
       </c>
       <c r="K6" t="n">
-        <v>209123.4133008437</v>
+        <v>209123.4133008431</v>
       </c>
       <c r="L6" t="n">
-        <v>145975.759468141</v>
+        <v>145975.7594681409</v>
       </c>
       <c r="M6" t="n">
-        <v>121409.1967946479</v>
+        <v>121409.196794648</v>
       </c>
       <c r="N6" t="n">
-        <v>212474.9481929954</v>
+        <v>212474.9481929953</v>
       </c>
       <c r="O6" t="n">
         <v>212474.9481929955</v>
@@ -26707,25 +26707,25 @@
         <v>210.8135928863978</v>
       </c>
       <c r="J2" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="K2" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="L2" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="M2" t="n">
         <v>152.4833426961502</v>
       </c>
       <c r="N2" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="O2" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="P2" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
     </row>
     <row r="3">
@@ -26759,10 +26759,10 @@
         <v>697.9352024183275</v>
       </c>
       <c r="J3" t="n">
+        <v>697.9352024183274</v>
+      </c>
+      <c r="K3" t="n">
         <v>697.9352024183275</v>
-      </c>
-      <c r="K3" t="n">
-        <v>697.9352024183277</v>
       </c>
       <c r="L3" t="n">
         <v>697.9352024183275</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>398.7618294679878</v>
+        <v>398.7618294679876</v>
       </c>
       <c r="F4" t="n">
-        <v>398.7618294679878</v>
+        <v>398.7618294679876</v>
       </c>
       <c r="G4" t="n">
-        <v>398.7618294679878</v>
+        <v>398.7618294679876</v>
       </c>
       <c r="H4" t="n">
-        <v>398.7618294679878</v>
+        <v>398.7618294679876</v>
       </c>
       <c r="I4" t="n">
-        <v>455.8476900517846</v>
+        <v>455.8476900517844</v>
       </c>
       <c r="J4" t="n">
+        <v>920.6869619795278</v>
+      </c>
+      <c r="K4" t="n">
         <v>920.6869619795284</v>
       </c>
-      <c r="K4" t="n">
-        <v>920.6869619795282</v>
-      </c>
       <c r="L4" t="n">
-        <v>920.686961979528</v>
+        <v>920.6869619795283</v>
       </c>
       <c r="M4" t="n">
-        <v>651.243807469126</v>
+        <v>651.2438074691258</v>
       </c>
       <c r="N4" t="n">
-        <v>651.2438074691257</v>
+        <v>651.2438074691258</v>
       </c>
       <c r="O4" t="n">
-        <v>651.2438074691257</v>
+        <v>651.2438074691258</v>
       </c>
       <c r="P4" t="n">
-        <v>651.2438074691257</v>
+        <v>651.2438074691256</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>131.8790255955194</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>78.93456729087836</v>
+        <v>78.93456729087839</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087839</v>
       </c>
       <c r="M2" t="n">
-        <v>73.54877540527175</v>
+        <v>73.54877540527183</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>398.7618294679878</v>
+        <v>398.7618294679876</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>57.08586058379683</v>
+        <v>57.08586058379677</v>
       </c>
       <c r="J4" t="n">
-        <v>464.8392719277438</v>
+        <v>464.8392719277434</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>129.3186749575858</v>
+        <v>129.3186749575852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>131.8790255955194</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>78.93456729087836</v>
+        <v>78.93456729087839</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>398.7618294679878</v>
+        <v>398.7618294679876</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28169,13 +28169,13 @@
         <v>131.8790255955194</v>
       </c>
       <c r="C12" t="n">
-        <v>18.96895895189687</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28217,10 +28217,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>131.8790255955194</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>131.8790255955194</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>131.8790255955194</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.8790255955194</v>
+        <v>18.96895895189789</v>
       </c>
     </row>
     <row r="13">
@@ -28260,16 +28260,16 @@
         <v>131.8790255955194</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="H13" t="n">
         <v>131.8790255955194</v>
       </c>
       <c r="I13" t="n">
-        <v>42.44142979564529</v>
+        <v>117.6017921469332</v>
       </c>
       <c r="J13" t="n">
-        <v>4.378162588683722</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28299,10 +28299,10 @@
         <v>131.8790255955194</v>
       </c>
       <c r="T13" t="n">
-        <v>131.8790255955194</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>131.8790255955194</v>
+        <v>61.09682583291587</v>
       </c>
       <c r="V13" t="n">
         <v>131.8790255955194</v>
@@ -28403,19 +28403,19 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>53.11115649700682</v>
+      </c>
+      <c r="C15" t="n">
         <v>131.8790255955194</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="G15" t="n">
         <v>131.8790255955194</v>
@@ -28457,19 +28457,19 @@
         <v>131.8790255955194</v>
       </c>
       <c r="T15" t="n">
-        <v>53.11115649700633</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>131.8790255955194</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>131.8790255955194</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>131.8790255955194</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>131.8790255955194</v>
       </c>
       <c r="H16" t="n">
-        <v>131.8790255955194</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>117.6017921469332</v>
@@ -28533,7 +28533,7 @@
         <v>45.54306982651998</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="T16" t="n">
         <v>131.8790255955194</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.842298048575</v>
+        <v>42.19031054793361</v>
       </c>
       <c r="H18" t="n">
-        <v>97.73682805041007</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>37.70992210628421</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,16 +28694,16 @@
         <v>143.7986844789169</v>
       </c>
       <c r="T18" t="n">
-        <v>194.113762175742</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>164.9478695895844</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7324076819667</v>
+        <v>68.23958061563744</v>
       </c>
       <c r="H19" t="n">
         <v>151.0373261473556</v>
@@ -28743,7 +28743,7 @@
         <v>117.6017921469332</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.378162588683722</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>116.6989284087522</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>210.8135928863978</v>
@@ -28785,7 +28785,7 @@
         <v>210.8135928863978</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -28886,13 +28886,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>77.89511448468451</v>
       </c>
       <c r="H21" t="n">
         <v>97.73682805041007</v>
@@ -28928,16 +28928,16 @@
         <v>6.950563157984178</v>
       </c>
       <c r="S21" t="n">
-        <v>134.9239961103073</v>
+        <v>143.7986844789169</v>
       </c>
       <c r="T21" t="n">
         <v>194.113762175742</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28956,19 +28956,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.7324076819667</v>
@@ -28977,7 +28977,7 @@
         <v>151.0373261473556</v>
       </c>
       <c r="I22" t="n">
-        <v>20.07927958221812</v>
+        <v>117.6017921469332</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,22 +29004,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>120.7034321778081</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>202.0831261839242</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>35.31923440263614</v>
       </c>
       <c r="U22" t="n">
-        <v>210.8135928863978</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>210.8135928863978</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>210.8135928863978</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>210.8135928863978</v>
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>135.842298048575</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>6.950563157984178</v>
       </c>
       <c r="S24" t="n">
         <v>143.7986844789169</v>
@@ -29171,7 +29171,7 @@
         <v>194.113762175742</v>
       </c>
       <c r="U24" t="n">
-        <v>186.8016797195741</v>
+        <v>34.78190416820695</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29202,22 +29202,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6710935089171244</v>
+        <v>166.7324076819667</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.0373261473556</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>117.6017921469332</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4.378162588683722</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,19 +29241,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>120.7034321778081</v>
+        <v>22.21060511147883</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>210.8135928863978</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>210.8135928863978</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>210.8135928863978</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>210.8135928863978</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="C26" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="D26" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="E26" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="F26" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="G26" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="H26" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="I26" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="T26" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="U26" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="V26" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="W26" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="X26" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="Y26" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="C28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="D28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="E28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="F28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="G28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="H28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="I28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="J28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="K28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="L28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="M28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="N28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="O28" t="n">
-        <v>78.93456729087958</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="P28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="R28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="S28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="T28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="U28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="V28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="W28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="X28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087846</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="C29" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="D29" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="E29" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="F29" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="G29" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="H29" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="I29" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="T29" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="U29" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="V29" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="W29" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="X29" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="C31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="D31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="E31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="F31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="G31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="H31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="I31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="J31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="K31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="L31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.9345672908793</v>
       </c>
       <c r="M31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="N31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="O31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="P31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="R31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="S31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="T31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="U31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="V31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="W31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="X31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.93456729087839</v>
+        <v>78.93456729087841</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="C32" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="D32" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="E32" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="F32" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="G32" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="H32" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="I32" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="T32" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="U32" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="V32" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="W32" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="X32" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="Y32" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="C34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="D34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="E34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="F34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="G34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="H34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="I34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="J34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="K34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="L34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="M34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="N34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="O34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="P34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="R34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="S34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="T34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="U34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="V34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="W34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="X34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.93456729087845</v>
+        <v>78.93456729087841</v>
       </c>
     </row>
     <row r="35">
@@ -30141,16 +30141,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>152.4833426961502</v>
       </c>
       <c r="C37" t="n">
         <v>152.4833426961502</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -30192,10 +30192,10 @@
         <v>120.7034321778081</v>
       </c>
       <c r="S37" t="n">
+        <v>115.8795599777567</v>
+      </c>
+      <c r="T37" t="n">
         <v>152.4833426961502</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>152.4833426961502</v>
@@ -30204,7 +30204,7 @@
         <v>152.4833426961502</v>
       </c>
       <c r="W37" t="n">
-        <v>125.7968097052759</v>
+        <v>152.4833426961502</v>
       </c>
       <c r="X37" t="n">
         <v>152.4833426961502</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="C38" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="D38" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="E38" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="F38" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="G38" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="H38" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="I38" t="n">
         <v>102.3064548317825</v>
@@ -30274,22 +30274,22 @@
         <v>145.0835935054106</v>
       </c>
       <c r="T38" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="U38" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="V38" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="W38" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="X38" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="Y38" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
     </row>
     <row r="39">
@@ -30378,22 +30378,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="C40" t="n">
-        <v>152.4833426961502</v>
+        <v>121.9289400273377</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="H40" t="n">
         <v>151.0373261473556</v>
@@ -30429,25 +30429,25 @@
         <v>120.7034321778081</v>
       </c>
       <c r="S40" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="T40" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="X40" t="n">
-        <v>132.8591043784948</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.4833426961502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="C41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="D41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="E41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="F41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="G41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="H41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="I41" t="n">
         <v>102.3064548317825</v>
@@ -30511,22 +30511,22 @@
         <v>145.0835935054106</v>
       </c>
       <c r="T41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="U41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="V41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="W41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="X41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="Y41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -30627,13 +30627,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>152.4833426961502</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>151.0373261473556</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>117.6017921469332</v>
@@ -30666,25 +30666,25 @@
         <v>120.7034321778081</v>
       </c>
       <c r="S43" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="T43" t="n">
-        <v>152.4833426961502</v>
+        <v>128.7289557451645</v>
       </c>
       <c r="U43" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="V43" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="X43" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="Y43" t="n">
-        <v>137.2372669671784</v>
+        <v>152.4833426961503</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="C44" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="D44" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="E44" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="F44" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="G44" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="H44" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="I44" t="n">
         <v>102.3064548317825</v>
@@ -30748,22 +30748,22 @@
         <v>145.0835935054106</v>
       </c>
       <c r="T44" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="U44" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="V44" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="W44" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="X44" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="Y44" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
     </row>
     <row r="45">
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.215650382226158e-13</v>
+        <v>1.271871497010579e-12</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30852,13 +30852,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="C46" t="n">
-        <v>152.4833426961502</v>
+        <v>127.3200172396593</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -30867,7 +30867,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="H46" t="n">
         <v>151.0373261473556</v>
@@ -30876,7 +30876,7 @@
         <v>117.6017921469332</v>
       </c>
       <c r="J46" t="n">
-        <v>4.378162588683722</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>120.7034321778081</v>
       </c>
       <c r="S46" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="T46" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="U46" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="V46" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="W46" t="n">
-        <v>126.8097243289137</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>152.4833426961503</v>
       </c>
     </row>
   </sheetData>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.805769657963124</v>
+        <v>2.805769657963123</v>
       </c>
       <c r="H26" t="n">
         <v>28.73458850961485</v>
@@ -32947,13 +32947,13 @@
         <v>238.1361925075479</v>
       </c>
       <c r="K26" t="n">
-        <v>356.904422129127</v>
+        <v>356.9044221291269</v>
       </c>
       <c r="L26" t="n">
         <v>442.771495299016</v>
       </c>
       <c r="M26" t="n">
-        <v>492.6686014538177</v>
+        <v>492.6686014538176</v>
       </c>
       <c r="N26" t="n">
         <v>500.6404944945054</v>
@@ -32962,10 +32962,10 @@
         <v>472.7406224581346</v>
       </c>
       <c r="P26" t="n">
-        <v>403.47318402717</v>
+        <v>403.4731840271699</v>
       </c>
       <c r="Q26" t="n">
-        <v>302.9915581513655</v>
+        <v>302.9915581513654</v>
       </c>
       <c r="R26" t="n">
         <v>176.2479282770262</v>
@@ -32977,7 +32977,7 @@
         <v>12.28225667773358</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2244615726370499</v>
+        <v>0.2244615726370498</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33020,43 @@
         <v>14.49861618608639</v>
       </c>
       <c r="I27" t="n">
-        <v>51.68671074513087</v>
+        <v>51.68671074513086</v>
       </c>
       <c r="J27" t="n">
-        <v>141.8322848612566</v>
+        <v>141.8322848612565</v>
       </c>
       <c r="K27" t="n">
-        <v>242.413965541845</v>
+        <v>242.4139655418449</v>
       </c>
       <c r="L27" t="n">
-        <v>325.9554924124463</v>
+        <v>325.9554924124462</v>
       </c>
       <c r="M27" t="n">
-        <v>380.3746853179885</v>
+        <v>380.3746853179884</v>
       </c>
       <c r="N27" t="n">
-        <v>390.4420713981548</v>
+        <v>390.4420713981547</v>
       </c>
       <c r="O27" t="n">
-        <v>357.1782162791228</v>
+        <v>357.1782162791227</v>
       </c>
       <c r="P27" t="n">
-        <v>286.6670079517844</v>
+        <v>286.6670079517843</v>
       </c>
       <c r="Q27" t="n">
         <v>191.629303124368</v>
       </c>
       <c r="R27" t="n">
-        <v>93.20727099465896</v>
+        <v>93.20727099465894</v>
       </c>
       <c r="S27" t="n">
-        <v>27.8844866249209</v>
+        <v>27.88448662492089</v>
       </c>
       <c r="T27" t="n">
-        <v>6.050966519079649</v>
+        <v>6.050966519079648</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09876441543655583</v>
+        <v>0.09876441543655581</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,13 +33099,13 @@
         <v>11.18984636008401</v>
       </c>
       <c r="I28" t="n">
-        <v>37.84868278032505</v>
+        <v>37.84868278032504</v>
       </c>
       <c r="J28" t="n">
-        <v>88.98101752798905</v>
+        <v>88.98101752798904</v>
       </c>
       <c r="K28" t="n">
-        <v>146.2231456869873</v>
+        <v>146.2231456869872</v>
       </c>
       <c r="L28" t="n">
         <v>187.1152836122841</v>
@@ -33114,7 +33114,7 @@
         <v>197.286831070479</v>
       </c>
       <c r="N28" t="n">
-        <v>192.5957911853724</v>
+        <v>192.5957911853723</v>
       </c>
       <c r="O28" t="n">
         <v>177.8933856918059</v>
@@ -33123,19 +33123,19 @@
         <v>152.2185234913676</v>
       </c>
       <c r="Q28" t="n">
-        <v>105.3882155651675</v>
+        <v>105.3882155651674</v>
       </c>
       <c r="R28" t="n">
         <v>56.58995919936142</v>
       </c>
       <c r="S28" t="n">
-        <v>21.93347185304809</v>
+        <v>21.93347185304808</v>
       </c>
       <c r="T28" t="n">
-        <v>5.377533526829735</v>
+        <v>5.377533526829734</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06864936417229459</v>
+        <v>0.06864936417229457</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,37 +33178,37 @@
         <v>28.73458850961485</v>
       </c>
       <c r="I29" t="n">
-        <v>108.1694347386235</v>
+        <v>108.1694347386234</v>
       </c>
       <c r="J29" t="n">
         <v>238.1361925075479</v>
       </c>
       <c r="K29" t="n">
-        <v>356.9044221291271</v>
+        <v>356.904422129127</v>
       </c>
       <c r="L29" t="n">
-        <v>442.7714952990161</v>
+        <v>442.771495299016</v>
       </c>
       <c r="M29" t="n">
-        <v>492.6686014538178</v>
+        <v>492.6686014538177</v>
       </c>
       <c r="N29" t="n">
-        <v>500.6404944945056</v>
+        <v>500.6404944945054</v>
       </c>
       <c r="O29" t="n">
-        <v>472.7406224581347</v>
+        <v>472.7406224581346</v>
       </c>
       <c r="P29" t="n">
         <v>403.47318402717</v>
       </c>
       <c r="Q29" t="n">
-        <v>302.9915581513656</v>
+        <v>302.9915581513655</v>
       </c>
       <c r="R29" t="n">
-        <v>176.2479282770263</v>
+        <v>176.2479282770262</v>
       </c>
       <c r="S29" t="n">
-        <v>63.93647608083476</v>
+        <v>63.93647608083474</v>
       </c>
       <c r="T29" t="n">
         <v>12.28225667773358</v>
@@ -33278,22 +33278,22 @@
         <v>357.1782162791228</v>
       </c>
       <c r="P30" t="n">
-        <v>286.6670079517845</v>
+        <v>286.6670079517844</v>
       </c>
       <c r="Q30" t="n">
         <v>191.629303124368</v>
       </c>
       <c r="R30" t="n">
-        <v>93.20727099465897</v>
+        <v>93.20727099465896</v>
       </c>
       <c r="S30" t="n">
         <v>27.8844866249209</v>
       </c>
       <c r="T30" t="n">
-        <v>6.05096651907965</v>
+        <v>6.050966519079649</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09876441543655584</v>
+        <v>0.09876441543655583</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,13 +33333,13 @@
         <v>1.258571676492066</v>
       </c>
       <c r="H31" t="n">
-        <v>11.18984636008402</v>
+        <v>11.18984636008401</v>
       </c>
       <c r="I31" t="n">
-        <v>37.84868278032506</v>
+        <v>37.84868278032505</v>
       </c>
       <c r="J31" t="n">
-        <v>88.98101752798907</v>
+        <v>88.98101752798905</v>
       </c>
       <c r="K31" t="n">
         <v>146.2231456869873</v>
@@ -33363,16 +33363,16 @@
         <v>105.3882155651675</v>
       </c>
       <c r="R31" t="n">
-        <v>56.58995919936143</v>
+        <v>56.58995919936142</v>
       </c>
       <c r="S31" t="n">
         <v>21.93347185304809</v>
       </c>
       <c r="T31" t="n">
-        <v>5.377533526829736</v>
+        <v>5.377533526829735</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0686493641722946</v>
+        <v>0.06864936417229459</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>205.9978106796388</v>
+        <v>57.0902879808616</v>
       </c>
       <c r="K11" t="n">
         <v>136.8145710841465</v>
@@ -35422,7 +35422,7 @@
         <v>271.2274308979145</v>
       </c>
       <c r="O11" t="n">
-        <v>242.6424110364479</v>
+        <v>391.5499337352242</v>
       </c>
       <c r="P11" t="n">
         <v>172.2401882719004</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.99465819458987</v>
+        <v>141.0856935349987</v>
       </c>
       <c r="K12" t="n">
         <v>104.572526567486</v>
@@ -35504,10 +35504,10 @@
         <v>214.5819718346783</v>
       </c>
       <c r="P12" t="n">
-        <v>398.7618294679878</v>
+        <v>172.2285967478146</v>
       </c>
       <c r="Q12" t="n">
-        <v>161.2826193944318</v>
+        <v>261.7248167741956</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>242.6424110364479</v>
       </c>
       <c r="P14" t="n">
-        <v>294.7689006348011</v>
+        <v>172.2401882719004</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.68586827691601</v>
+        <v>229.5933909756925</v>
       </c>
       <c r="R14" t="n">
-        <v>26.37881033587655</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>106.2337404686302</v>
+        <v>141.0856935349987</v>
       </c>
       <c r="K15" t="n">
-        <v>369.0377635800646</v>
+        <v>104.572526567486</v>
       </c>
       <c r="L15" t="n">
         <v>187.4011126325721</v>
@@ -35741,7 +35741,7 @@
         <v>214.5819718346783</v>
       </c>
       <c r="P15" t="n">
-        <v>152.6926005374542</v>
+        <v>382.3058844836637</v>
       </c>
       <c r="Q15" t="n">
         <v>51.64752903834648</v>
@@ -35902,7 +35902,7 @@
         <v>172.2401882719004</v>
       </c>
       <c r="Q17" t="n">
-        <v>229.5933909756932</v>
+        <v>229.5933909756925</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,10 +35966,10 @@
         <v>104.572526567486</v>
       </c>
       <c r="L18" t="n">
-        <v>187.4011126325721</v>
+        <v>206.9371088429325</v>
       </c>
       <c r="M18" t="n">
-        <v>257.776647606331</v>
+        <v>238.2406513959701</v>
       </c>
       <c r="N18" t="n">
         <v>259.1003593148215</v>
@@ -36121,10 +36121,10 @@
         <v>57.0902879808616</v>
       </c>
       <c r="K20" t="n">
-        <v>136.8145710841465</v>
+        <v>285.7220937829227</v>
       </c>
       <c r="L20" t="n">
-        <v>329.5337926919295</v>
+        <v>207.0050803290288</v>
       </c>
       <c r="M20" t="n">
         <v>262.322368226545</v>
@@ -36142,7 +36142,7 @@
         <v>80.68586827691601</v>
       </c>
       <c r="R20" t="n">
-        <v>26.37881033587655</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14.99465819458987</v>
+        <v>141.0856935349987</v>
       </c>
       <c r="K21" t="n">
         <v>104.572526567486</v>
@@ -36206,7 +36206,7 @@
         <v>187.4011126325721</v>
       </c>
       <c r="M21" t="n">
-        <v>238.2406513959701</v>
+        <v>257.7766476063306</v>
       </c>
       <c r="N21" t="n">
         <v>259.1003593148215</v>
@@ -36215,10 +36215,10 @@
         <v>214.5819718346783</v>
       </c>
       <c r="P21" t="n">
-        <v>398.7618294679878</v>
+        <v>152.6926005374542</v>
       </c>
       <c r="Q21" t="n">
-        <v>161.2826193944318</v>
+        <v>261.7248167741956</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,19 +36361,19 @@
         <v>136.8145710841465</v>
       </c>
       <c r="L23" t="n">
-        <v>207.0050803290288</v>
+        <v>397.3292867915955</v>
       </c>
       <c r="M23" t="n">
         <v>262.322368226545</v>
       </c>
       <c r="N23" t="n">
-        <v>271.2274308979145</v>
+        <v>455.8476900517844</v>
       </c>
       <c r="O23" t="n">
-        <v>455.8476900517846</v>
+        <v>242.6424110364479</v>
       </c>
       <c r="P23" t="n">
-        <v>333.979374873001</v>
+        <v>172.2401882719004</v>
       </c>
       <c r="Q23" t="n">
         <v>80.68586827691601</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>122.1933956504413</v>
+        <v>141.0856935349987</v>
       </c>
       <c r="K24" t="n">
-        <v>369.0377635800646</v>
+        <v>108.8797474784002</v>
       </c>
       <c r="L24" t="n">
         <v>187.4011126325721</v>
@@ -36449,7 +36449,7 @@
         <v>259.1003593148215</v>
       </c>
       <c r="O24" t="n">
-        <v>214.5819718346783</v>
+        <v>455.8476900517844</v>
       </c>
       <c r="P24" t="n">
         <v>152.6926005374542</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>57.0902879808616</v>
+        <v>226.1869031529353</v>
       </c>
       <c r="K26" t="n">
-        <v>460.9599836553112</v>
+        <v>136.8145710841464</v>
       </c>
       <c r="L26" t="n">
         <v>624.6662948794792</v>
       </c>
       <c r="M26" t="n">
-        <v>711.8359017193775</v>
+        <v>711.8359017193774</v>
       </c>
       <c r="N26" t="n">
         <v>708.5743553098987</v>
       </c>
       <c r="O26" t="n">
-        <v>623.4425922991933</v>
+        <v>424.0517828449002</v>
       </c>
       <c r="P26" t="n">
-        <v>378.2930905857824</v>
+        <v>494.038896443383</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.68586827691601</v>
+        <v>293.0008589368206</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>26.37881033587652</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>14.99465819458987</v>
+        <v>141.0856935349987</v>
       </c>
       <c r="K27" t="n">
-        <v>104.572526567486</v>
+        <v>369.0377635800645</v>
       </c>
       <c r="L27" t="n">
-        <v>558.2414579360313</v>
+        <v>558.2414579360312</v>
       </c>
       <c r="M27" t="n">
-        <v>238.2406513959701</v>
+        <v>703.94571514597</v>
       </c>
       <c r="N27" t="n">
-        <v>715.1508968862975</v>
+        <v>387.4296171590966</v>
       </c>
       <c r="O27" t="n">
         <v>214.5819718346783</v>
       </c>
       <c r="P27" t="n">
-        <v>471.1553691773913</v>
+        <v>152.6926005374541</v>
       </c>
       <c r="Q27" t="n">
-        <v>261.7248167741956</v>
+        <v>51.64752903834645</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.55640470219467</v>
+        <v>74.55640470219473</v>
       </c>
       <c r="K28" t="n">
-        <v>202.8882211519828</v>
+        <v>202.8882211519829</v>
       </c>
       <c r="L28" t="n">
-        <v>293.6398761634786</v>
+        <v>293.6398761634787</v>
       </c>
       <c r="M28" t="n">
         <v>315.805275323198</v>
@@ -36765,13 +36765,13 @@
         <v>315.6625308554794</v>
       </c>
       <c r="O28" t="n">
-        <v>281.4130808967251</v>
+        <v>281.413080896724</v>
       </c>
       <c r="P28" t="n">
-        <v>228.4316500471395</v>
+        <v>228.4316500471396</v>
       </c>
       <c r="Q28" t="n">
-        <v>98.16073960435146</v>
+        <v>98.16073960435152</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>57.09028798086163</v>
+        <v>57.0902879808616</v>
       </c>
       <c r="K29" t="n">
         <v>460.9599836553112</v>
@@ -36841,16 +36841,16 @@
         <v>711.8359017193775</v>
       </c>
       <c r="N29" t="n">
-        <v>708.5743553098988</v>
+        <v>708.5743553098987</v>
       </c>
       <c r="O29" t="n">
-        <v>295.3817957816865</v>
+        <v>623.4425922991933</v>
       </c>
       <c r="P29" t="n">
-        <v>494.0388964433831</v>
+        <v>378.2930905857824</v>
       </c>
       <c r="Q29" t="n">
-        <v>293.0008589368207</v>
+        <v>80.68586827691601</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>558.2414579360313</v>
       </c>
       <c r="M30" t="n">
-        <v>303.7349166144583</v>
+        <v>238.2406513959701</v>
       </c>
       <c r="N30" t="n">
         <v>259.1003593148215</v>
       </c>
       <c r="O30" t="n">
-        <v>214.5819718346784</v>
+        <v>280.0762370531668</v>
       </c>
       <c r="P30" t="n">
-        <v>471.1553691773914</v>
+        <v>471.1553691773913</v>
       </c>
       <c r="Q30" t="n">
         <v>261.7248167741956</v>
@@ -36993,7 +36993,7 @@
         <v>202.8882211519828</v>
       </c>
       <c r="L31" t="n">
-        <v>293.6398761634787</v>
+        <v>293.6398761634795</v>
       </c>
       <c r="M31" t="n">
         <v>315.805275323198</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>57.0902879808616</v>
+        <v>226.1869031529354</v>
       </c>
       <c r="K32" t="n">
-        <v>345.2141777977084</v>
+        <v>136.8145710841465</v>
       </c>
       <c r="L32" t="n">
-        <v>624.6662948794792</v>
+        <v>425.2754854251874</v>
       </c>
       <c r="M32" t="n">
         <v>711.8359017193775</v>
@@ -37087,10 +37087,10 @@
         <v>494.0388964433831</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.68586827691601</v>
+        <v>293.0008589368207</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>26.37881033587655</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.55640470219473</v>
+        <v>74.55640470219468</v>
       </c>
       <c r="K34" t="n">
-        <v>202.8882211519829</v>
+        <v>202.8882211519828</v>
       </c>
       <c r="L34" t="n">
-        <v>293.6398761634787</v>
+        <v>293.6398761634786</v>
       </c>
       <c r="M34" t="n">
         <v>315.805275323198</v>
@@ -37242,10 +37242,10 @@
         <v>281.413080896724</v>
       </c>
       <c r="P34" t="n">
-        <v>228.4316500471396</v>
+        <v>228.4316500471395</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.16073960435152</v>
+        <v>98.16073960435148</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>57.0902879808616</v>
+        <v>226.1869031529354</v>
       </c>
       <c r="K35" t="n">
         <v>460.9599836553112</v>
       </c>
       <c r="L35" t="n">
-        <v>624.6662948794792</v>
+        <v>328.2834964172822</v>
       </c>
       <c r="M35" t="n">
         <v>262.322368226545</v>
@@ -37318,13 +37318,13 @@
         <v>271.2274308979145</v>
       </c>
       <c r="O35" t="n">
-        <v>623.4425922991933</v>
+        <v>242.6424110364479</v>
       </c>
       <c r="P35" t="n">
-        <v>198.2675225504192</v>
+        <v>494.0388964433831</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.68586827691601</v>
+        <v>293.0008589368207</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>14.99465819458987</v>
+        <v>141.0856935349987</v>
       </c>
       <c r="K36" t="n">
         <v>104.572526567486</v>
       </c>
       <c r="L36" t="n">
-        <v>558.2414579360313</v>
+        <v>187.4011126325721</v>
       </c>
       <c r="M36" t="n">
-        <v>510.5061574265658</v>
+        <v>238.2406513959701</v>
       </c>
       <c r="N36" t="n">
-        <v>259.1003593148215</v>
+        <v>566.0378875726178</v>
       </c>
       <c r="O36" t="n">
         <v>608.4442911114079</v>
@@ -37403,7 +37403,7 @@
         <v>471.1553691773913</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.64752903834648</v>
+        <v>261.7248167741956</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>57.0902879808616</v>
+        <v>226.1869031529354</v>
       </c>
       <c r="K38" t="n">
         <v>136.8145710841465</v>
       </c>
       <c r="L38" t="n">
-        <v>594.8226651579511</v>
+        <v>207.0050803290288</v>
       </c>
       <c r="M38" t="n">
-        <v>262.322368226545</v>
+        <v>651.2438074691258</v>
       </c>
       <c r="N38" t="n">
-        <v>651.2438074691257</v>
+        <v>649.5285284862346</v>
       </c>
       <c r="O38" t="n">
-        <v>623.4425922991933</v>
+        <v>242.6424110364479</v>
       </c>
       <c r="P38" t="n">
         <v>172.2401882719004</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.68586827691601</v>
+        <v>293.0008589368207</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14.99465819458987</v>
+        <v>141.0856935349987</v>
       </c>
       <c r="K39" t="n">
         <v>369.0377635800646</v>
@@ -37634,10 +37634,10 @@
         <v>259.1003593148215</v>
       </c>
       <c r="O39" t="n">
-        <v>608.4442911114079</v>
+        <v>280.0762370531668</v>
       </c>
       <c r="P39" t="n">
-        <v>268.8783504595596</v>
+        <v>471.1553691773913</v>
       </c>
       <c r="Q39" t="n">
         <v>261.7248167741956</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>57.0902879808616</v>
+        <v>226.1869031529354</v>
       </c>
       <c r="K41" t="n">
-        <v>136.8145710841465</v>
+        <v>460.9599836553112</v>
       </c>
       <c r="L41" t="n">
-        <v>624.6662948794792</v>
+        <v>207.0050803290288</v>
       </c>
       <c r="M41" t="n">
-        <v>651.2438074691257</v>
+        <v>383.6007843147984</v>
       </c>
       <c r="N41" t="n">
         <v>271.2274308979145</v>
       </c>
       <c r="O41" t="n">
-        <v>584.6938999062957</v>
+        <v>242.6424110364479</v>
       </c>
       <c r="P41" t="n">
-        <v>172.2401882719004</v>
+        <v>494.0388964433831</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.68586827691601</v>
+        <v>293.0008589368207</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>14.99465819458987</v>
       </c>
       <c r="K42" t="n">
-        <v>104.572526567486</v>
+        <v>369.0377635800646</v>
       </c>
       <c r="L42" t="n">
-        <v>187.4011126325721</v>
+        <v>558.2414579360313</v>
       </c>
       <c r="M42" t="n">
-        <v>279.1257668398716</v>
+        <v>238.2406513959701</v>
       </c>
       <c r="N42" t="n">
-        <v>651.2438074691257</v>
+        <v>266.9006283328386</v>
       </c>
       <c r="O42" t="n">
         <v>608.4442911114079</v>
@@ -37877,7 +37877,7 @@
         <v>471.1553691773913</v>
       </c>
       <c r="Q42" t="n">
-        <v>261.7248167741956</v>
+        <v>51.64752903834648</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>57.0902879808616</v>
+        <v>226.1869031529354</v>
       </c>
       <c r="K44" t="n">
-        <v>136.8145710841465</v>
+        <v>460.9599836553112</v>
       </c>
       <c r="L44" t="n">
-        <v>624.6662948794792</v>
+        <v>328.2834964172813</v>
       </c>
       <c r="M44" t="n">
         <v>262.322368226545</v>
@@ -38029,16 +38029,16 @@
         <v>271.2274308979145</v>
       </c>
       <c r="O44" t="n">
-        <v>623.4425922991933</v>
+        <v>242.6424110364479</v>
       </c>
       <c r="P44" t="n">
         <v>494.0388964433831</v>
       </c>
       <c r="Q44" t="n">
-        <v>82.6810966192395</v>
+        <v>293.0008589368207</v>
       </c>
       <c r="R44" t="n">
-        <v>26.37881033587655</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>14.99465819458987</v>
+        <v>141.0856935349987</v>
       </c>
       <c r="K45" t="n">
-        <v>104.572526567486</v>
+        <v>369.0377635800646</v>
       </c>
       <c r="L45" t="n">
         <v>558.2414579360313</v>
       </c>
       <c r="M45" t="n">
-        <v>651.2438074691257</v>
+        <v>238.2406513959701</v>
       </c>
       <c r="N45" t="n">
         <v>259.1003593148215</v>
       </c>
       <c r="O45" t="n">
-        <v>608.4442911114079</v>
+        <v>280.0762370531654</v>
       </c>
       <c r="P45" t="n">
-        <v>330.417719134831</v>
+        <v>471.1553691773913</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.64752903834648</v>
+        <v>261.7248167741956</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
